--- a/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
+++ b/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
@@ -476,7 +476,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -501,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -726,7 +726,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -901,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -976,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1026,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1101,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1151,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1251,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1351,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1376,7 +1376,7 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1401,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1476,7 +1476,7 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1501,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1526,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1601,7 +1601,7 @@
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -1626,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -1751,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -1776,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -1851,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -1876,7 +1876,7 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -1901,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -1976,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2001,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2026,7 +2026,7 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -2101,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -2126,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -2151,7 +2151,7 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -2226,7 +2226,7 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -2251,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -2276,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -2351,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -2376,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -2401,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -2476,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -2501,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -2526,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -2601,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -2626,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -2651,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -2726,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -2751,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -2776,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -2851,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -2876,7 +2876,7 @@
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -2901,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -2976,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -3001,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -3026,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -3101,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -3126,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -3151,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -3226,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -3251,7 +3251,7 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -3276,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -3351,7 +3351,7 @@
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -3376,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -3401,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -3476,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -3501,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -3526,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -3601,7 +3601,7 @@
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -3626,7 +3626,7 @@
         <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -3651,7 +3651,7 @@
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -3726,7 +3726,7 @@
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -3751,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -3776,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -3851,7 +3851,7 @@
         <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -3876,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -3901,7 +3901,7 @@
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -3976,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -4001,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -4026,7 +4026,7 @@
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -4101,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -4126,7 +4126,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -4151,7 +4151,7 @@
         <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -4226,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="G152" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -4251,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -4276,7 +4276,7 @@
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -4351,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -4376,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -4401,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -4476,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
@@ -4501,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -4526,7 +4526,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -4601,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -4626,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -4651,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -4726,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -4751,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -4776,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -4851,7 +4851,7 @@
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
@@ -4876,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -4901,7 +4901,7 @@
         <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
@@ -4976,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -5001,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -5026,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -5101,7 +5101,7 @@
         <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -5126,7 +5126,7 @@
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -5151,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
@@ -5226,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
@@ -5251,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="G193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -5276,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -5351,7 +5351,7 @@
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -5376,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -5401,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -5476,7 +5476,7 @@
         <v>12</v>
       </c>
       <c r="G202" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -5501,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="G203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
@@ -5526,7 +5526,7 @@
         <v>12</v>
       </c>
       <c r="G204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -5601,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="G207" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
@@ -5626,7 +5626,7 @@
         <v>12</v>
       </c>
       <c r="G208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -5651,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="G209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -5726,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="G212" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -5751,7 +5751,7 @@
         <v>12</v>
       </c>
       <c r="G213" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -5776,7 +5776,7 @@
         <v>12</v>
       </c>
       <c r="G214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -5851,7 +5851,7 @@
         <v>12</v>
       </c>
       <c r="G217" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -5876,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="G218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -5901,7 +5901,7 @@
         <v>12</v>
       </c>
       <c r="G219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
@@ -5976,7 +5976,7 @@
         <v>12</v>
       </c>
       <c r="G222" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -6001,7 +6001,7 @@
         <v>12</v>
       </c>
       <c r="G223" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -6026,7 +6026,7 @@
         <v>12</v>
       </c>
       <c r="G224" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -6101,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="G227" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
@@ -6126,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="G228" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
@@ -6151,7 +6151,7 @@
         <v>12</v>
       </c>
       <c r="G229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -6226,7 +6226,7 @@
         <v>12</v>
       </c>
       <c r="G232" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -6251,7 +6251,7 @@
         <v>12</v>
       </c>
       <c r="G233" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
@@ -6276,7 +6276,7 @@
         <v>12</v>
       </c>
       <c r="G234" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
@@ -6351,7 +6351,7 @@
         <v>12</v>
       </c>
       <c r="G237" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
@@ -6376,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="G238" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -6401,7 +6401,7 @@
         <v>12</v>
       </c>
       <c r="G239" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
@@ -6476,7 +6476,7 @@
         <v>12</v>
       </c>
       <c r="G242" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -6501,7 +6501,7 @@
         <v>12</v>
       </c>
       <c r="G243" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
@@ -6526,7 +6526,7 @@
         <v>12</v>
       </c>
       <c r="G244" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -6601,7 +6601,7 @@
         <v>12</v>
       </c>
       <c r="G247" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -6626,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="G248" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -6651,7 +6651,7 @@
         <v>12</v>
       </c>
       <c r="G249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
@@ -6726,7 +6726,7 @@
         <v>12</v>
       </c>
       <c r="G252" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -6751,7 +6751,7 @@
         <v>12</v>
       </c>
       <c r="G253" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -6776,7 +6776,7 @@
         <v>12</v>
       </c>
       <c r="G254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -6851,7 +6851,7 @@
         <v>12</v>
       </c>
       <c r="G257" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
@@ -6876,7 +6876,7 @@
         <v>12</v>
       </c>
       <c r="G258" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
@@ -6901,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="G259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -6976,7 +6976,7 @@
         <v>12</v>
       </c>
       <c r="G262" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -7001,7 +7001,7 @@
         <v>12</v>
       </c>
       <c r="G263" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -7026,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="G264" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
@@ -7101,7 +7101,7 @@
         <v>12</v>
       </c>
       <c r="G267" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -7126,7 +7126,7 @@
         <v>12</v>
       </c>
       <c r="G268" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -7151,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
@@ -7226,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="G272" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
@@ -7251,7 +7251,7 @@
         <v>12</v>
       </c>
       <c r="G273" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
@@ -7276,7 +7276,7 @@
         <v>12</v>
       </c>
       <c r="G274" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -7351,7 +7351,7 @@
         <v>12</v>
       </c>
       <c r="G277" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -7376,7 +7376,7 @@
         <v>12</v>
       </c>
       <c r="G278" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
@@ -7401,7 +7401,7 @@
         <v>12</v>
       </c>
       <c r="G279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
@@ -7476,7 +7476,7 @@
         <v>12</v>
       </c>
       <c r="G282" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.15">
@@ -7501,7 +7501,7 @@
         <v>12</v>
       </c>
       <c r="G283" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -7526,7 +7526,7 @@
         <v>12</v>
       </c>
       <c r="G284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -7601,7 +7601,7 @@
         <v>12</v>
       </c>
       <c r="G287" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
@@ -7626,7 +7626,7 @@
         <v>12</v>
       </c>
       <c r="G288" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
@@ -7651,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="G289" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -7726,7 +7726,7 @@
         <v>12</v>
       </c>
       <c r="G292" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -7751,7 +7751,7 @@
         <v>12</v>
       </c>
       <c r="G293" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
@@ -7776,7 +7776,7 @@
         <v>12</v>
       </c>
       <c r="G294" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
@@ -7851,7 +7851,7 @@
         <v>12</v>
       </c>
       <c r="G297" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
@@ -7876,7 +7876,7 @@
         <v>12</v>
       </c>
       <c r="G298" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -7901,7 +7901,7 @@
         <v>12</v>
       </c>
       <c r="G299" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
@@ -7976,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="G302" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -8001,7 +8001,7 @@
         <v>12</v>
       </c>
       <c r="G303" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
@@ -8026,7 +8026,7 @@
         <v>12</v>
       </c>
       <c r="G304" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -8101,7 +8101,7 @@
         <v>12</v>
       </c>
       <c r="G307" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -8126,7 +8126,7 @@
         <v>12</v>
       </c>
       <c r="G308" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -8151,7 +8151,7 @@
         <v>12</v>
       </c>
       <c r="G309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
@@ -8226,7 +8226,7 @@
         <v>12</v>
       </c>
       <c r="G312" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
@@ -8251,7 +8251,7 @@
         <v>12</v>
       </c>
       <c r="G313" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -8276,7 +8276,7 @@
         <v>12</v>
       </c>
       <c r="G314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -8351,7 +8351,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
@@ -8376,7 +8376,7 @@
         <v>12</v>
       </c>
       <c r="G318" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
@@ -8401,7 +8401,7 @@
         <v>12</v>
       </c>
       <c r="G319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -8476,7 +8476,7 @@
         <v>12</v>
       </c>
       <c r="G322" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -8501,7 +8501,7 @@
         <v>12</v>
       </c>
       <c r="G323" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.15">
@@ -8526,7 +8526,7 @@
         <v>12</v>
       </c>
       <c r="G324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.15">
@@ -8601,7 +8601,7 @@
         <v>12</v>
       </c>
       <c r="G327" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
@@ -8626,7 +8626,7 @@
         <v>12</v>
       </c>
       <c r="G328" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -8651,7 +8651,7 @@
         <v>12</v>
       </c>
       <c r="G329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
@@ -8726,7 +8726,7 @@
         <v>12</v>
       </c>
       <c r="G332" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
@@ -8751,7 +8751,7 @@
         <v>12</v>
       </c>
       <c r="G333" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
@@ -8776,7 +8776,7 @@
         <v>12</v>
       </c>
       <c r="G334" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -8851,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="G337" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -8876,7 +8876,7 @@
         <v>12</v>
       </c>
       <c r="G338" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
@@ -8901,7 +8901,7 @@
         <v>12</v>
       </c>
       <c r="G339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
@@ -8976,7 +8976,7 @@
         <v>12</v>
       </c>
       <c r="G342" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.15">
@@ -9001,7 +9001,7 @@
         <v>12</v>
       </c>
       <c r="G343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -9026,7 +9026,7 @@
         <v>12</v>
       </c>
       <c r="G344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
@@ -9101,7 +9101,7 @@
         <v>12</v>
       </c>
       <c r="G347" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.15">
@@ -9126,7 +9126,7 @@
         <v>12</v>
       </c>
       <c r="G348" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.15">
@@ -9151,7 +9151,7 @@
         <v>12</v>
       </c>
       <c r="G349" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -9226,7 +9226,7 @@
         <v>12</v>
       </c>
       <c r="G352" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -9251,7 +9251,7 @@
         <v>12</v>
       </c>
       <c r="G353" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.15">
@@ -9276,7 +9276,7 @@
         <v>12</v>
       </c>
       <c r="G354" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.15">
@@ -9351,7 +9351,7 @@
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.15">
@@ -9376,7 +9376,7 @@
         <v>12</v>
       </c>
       <c r="G358" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -9401,7 +9401,7 @@
         <v>12</v>
       </c>
       <c r="G359" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
@@ -9476,7 +9476,7 @@
         <v>12</v>
       </c>
       <c r="G362" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
@@ -9501,7 +9501,7 @@
         <v>12</v>
       </c>
       <c r="G363" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.15">
@@ -9526,7 +9526,7 @@
         <v>12</v>
       </c>
       <c r="G364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -9601,7 +9601,7 @@
         <v>12</v>
       </c>
       <c r="G367" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -9626,7 +9626,7 @@
         <v>12</v>
       </c>
       <c r="G368" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
@@ -9651,7 +9651,7 @@
         <v>12</v>
       </c>
       <c r="G369" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
@@ -9726,7 +9726,7 @@
         <v>12</v>
       </c>
       <c r="G372" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.15">
@@ -9751,7 +9751,7 @@
         <v>12</v>
       </c>
       <c r="G373" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -9776,7 +9776,7 @@
         <v>12</v>
       </c>
       <c r="G374" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
@@ -9851,7 +9851,7 @@
         <v>12</v>
       </c>
       <c r="G377" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.15">
@@ -9876,7 +9876,7 @@
         <v>12</v>
       </c>
       <c r="G378" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.15">
@@ -9901,7 +9901,7 @@
         <v>12</v>
       </c>
       <c r="G379" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -9976,7 +9976,7 @@
         <v>12</v>
       </c>
       <c r="G382" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -10001,7 +10001,7 @@
         <v>12</v>
       </c>
       <c r="G383" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
@@ -10026,7 +10026,7 @@
         <v>12</v>
       </c>
       <c r="G384" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
@@ -10101,7 +10101,7 @@
         <v>12</v>
       </c>
       <c r="G387" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
@@ -10126,7 +10126,7 @@
         <v>12</v>
       </c>
       <c r="G388" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -10151,7 +10151,7 @@
         <v>12</v>
       </c>
       <c r="G389" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
@@ -10226,7 +10226,7 @@
         <v>12</v>
       </c>
       <c r="G392" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
@@ -10251,7 +10251,7 @@
         <v>12</v>
       </c>
       <c r="G393" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
@@ -10276,7 +10276,7 @@
         <v>12</v>
       </c>
       <c r="G394" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -10351,7 +10351,7 @@
         <v>12</v>
       </c>
       <c r="G397" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -10376,7 +10376,7 @@
         <v>12</v>
       </c>
       <c r="G398" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -10401,7 +10401,7 @@
         <v>12</v>
       </c>
       <c r="G399" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
@@ -10476,7 +10476,7 @@
         <v>12</v>
       </c>
       <c r="G402" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.15">
@@ -10501,7 +10501,7 @@
         <v>12</v>
       </c>
       <c r="G403" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -10526,7 +10526,7 @@
         <v>12</v>
       </c>
       <c r="G404" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
@@ -10601,7 +10601,7 @@
         <v>12</v>
       </c>
       <c r="G407" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
@@ -10626,7 +10626,7 @@
         <v>12</v>
       </c>
       <c r="G408" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
@@ -10651,7 +10651,7 @@
         <v>12</v>
       </c>
       <c r="G409" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -10726,7 +10726,7 @@
         <v>12</v>
       </c>
       <c r="G412" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -10751,7 +10751,7 @@
         <v>12</v>
       </c>
       <c r="G413" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
@@ -10776,7 +10776,7 @@
         <v>12</v>
       </c>
       <c r="G414" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
@@ -10851,7 +10851,7 @@
         <v>12</v>
       </c>
       <c r="G417" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.15">
@@ -10876,7 +10876,7 @@
         <v>12</v>
       </c>
       <c r="G418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -10901,7 +10901,7 @@
         <v>12</v>
       </c>
       <c r="G419" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.15">
@@ -10976,7 +10976,7 @@
         <v>12</v>
       </c>
       <c r="G422" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -11001,7 +11001,7 @@
         <v>12</v>
       </c>
       <c r="G423" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.15">
@@ -11026,7 +11026,7 @@
         <v>12</v>
       </c>
       <c r="G424" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -11101,7 +11101,7 @@
         <v>12</v>
       </c>
       <c r="G427" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -11126,7 +11126,7 @@
         <v>12</v>
       </c>
       <c r="G428" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -11151,7 +11151,7 @@
         <v>12</v>
       </c>
       <c r="G429" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
@@ -11226,7 +11226,7 @@
         <v>12</v>
       </c>
       <c r="G432" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.15">
@@ -11251,7 +11251,7 @@
         <v>12</v>
       </c>
       <c r="G433" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -11276,7 +11276,7 @@
         <v>12</v>
       </c>
       <c r="G434" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -11351,7 +11351,7 @@
         <v>12</v>
       </c>
       <c r="G437" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.15">
@@ -11376,7 +11376,7 @@
         <v>12</v>
       </c>
       <c r="G438" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
@@ -11401,7 +11401,7 @@
         <v>12</v>
       </c>
       <c r="G439" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -11476,7 +11476,7 @@
         <v>12</v>
       </c>
       <c r="G442" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -11501,7 +11501,7 @@
         <v>12</v>
       </c>
       <c r="G443" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.15">
@@ -11526,7 +11526,7 @@
         <v>12</v>
       </c>
       <c r="G444" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.15">
@@ -11601,7 +11601,7 @@
         <v>12</v>
       </c>
       <c r="G447" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.15">
@@ -11626,7 +11626,7 @@
         <v>12</v>
       </c>
       <c r="G448" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -11651,7 +11651,7 @@
         <v>12</v>
       </c>
       <c r="G449" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.15">
@@ -11726,7 +11726,7 @@
         <v>12</v>
       </c>
       <c r="G452" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -11751,7 +11751,7 @@
         <v>12</v>
       </c>
       <c r="G453" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.15">
@@ -11776,7 +11776,7 @@
         <v>12</v>
       </c>
       <c r="G454" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -11851,7 +11851,7 @@
         <v>12</v>
       </c>
       <c r="G457" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -11876,7 +11876,7 @@
         <v>12</v>
       </c>
       <c r="G458" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -11901,7 +11901,7 @@
         <v>12</v>
       </c>
       <c r="G459" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.15">
@@ -11976,7 +11976,7 @@
         <v>12</v>
       </c>
       <c r="G462" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.15">
@@ -12001,7 +12001,7 @@
         <v>12</v>
       </c>
       <c r="G463" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -12026,7 +12026,7 @@
         <v>12</v>
       </c>
       <c r="G464" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -12101,7 +12101,7 @@
         <v>12</v>
       </c>
       <c r="G467" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.15">
@@ -12126,7 +12126,7 @@
         <v>12</v>
       </c>
       <c r="G468" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.15">
@@ -12151,7 +12151,7 @@
         <v>12</v>
       </c>
       <c r="G469" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -12226,7 +12226,7 @@
         <v>12</v>
       </c>
       <c r="G472" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -12251,7 +12251,7 @@
         <v>12</v>
       </c>
       <c r="G473" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.15">
@@ -12276,7 +12276,7 @@
         <v>12</v>
       </c>
       <c r="G474" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.15">
@@ -12351,7 +12351,7 @@
         <v>12</v>
       </c>
       <c r="G477" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.15">
@@ -12376,7 +12376,7 @@
         <v>12</v>
       </c>
       <c r="G478" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -12401,7 +12401,7 @@
         <v>12</v>
       </c>
       <c r="G479" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.15">
@@ -12476,7 +12476,7 @@
         <v>12</v>
       </c>
       <c r="G482" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.15">
@@ -12501,7 +12501,7 @@
         <v>12</v>
       </c>
       <c r="G483" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.15">
@@ -12526,7 +12526,7 @@
         <v>12</v>
       </c>
       <c r="G484" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -12601,7 +12601,7 @@
         <v>12</v>
       </c>
       <c r="G487" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -12626,7 +12626,7 @@
         <v>12</v>
       </c>
       <c r="G488" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -12651,7 +12651,7 @@
         <v>12</v>
       </c>
       <c r="G489" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.15">
@@ -12726,7 +12726,7 @@
         <v>12</v>
       </c>
       <c r="G492" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.15">
@@ -12751,7 +12751,7 @@
         <v>12</v>
       </c>
       <c r="G493" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -12776,7 +12776,7 @@
         <v>12</v>
       </c>
       <c r="G494" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.15">
@@ -12851,7 +12851,7 @@
         <v>12</v>
       </c>
       <c r="G497" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.15">
@@ -12876,7 +12876,7 @@
         <v>12</v>
       </c>
       <c r="G498" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.15">
@@ -12901,7 +12901,7 @@
         <v>12</v>
       </c>
       <c r="G499" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -12999,7 +12999,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -13024,7 +13024,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -13049,7 +13049,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -13124,7 +13124,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -13149,7 +13149,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -13174,7 +13174,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -13249,7 +13249,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -13274,7 +13274,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -13299,7 +13299,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -13374,7 +13374,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -13399,7 +13399,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -13424,7 +13424,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -13499,7 +13499,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -13524,7 +13524,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -13549,7 +13549,7 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -13624,7 +13624,7 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -13649,7 +13649,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -13674,7 +13674,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -13749,7 +13749,7 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -13774,7 +13774,7 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -13799,7 +13799,7 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -13874,7 +13874,7 @@
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -13899,7 +13899,7 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -13924,7 +13924,7 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -13999,7 +13999,7 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -14024,7 +14024,7 @@
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -14049,7 +14049,7 @@
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -14124,7 +14124,7 @@
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -14149,7 +14149,7 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -14174,7 +14174,7 @@
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -14249,7 +14249,7 @@
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -14274,7 +14274,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -14299,7 +14299,7 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -14374,7 +14374,7 @@
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -14399,7 +14399,7 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -14424,7 +14424,7 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -14499,7 +14499,7 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -14524,7 +14524,7 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -14549,7 +14549,7 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -14624,7 +14624,7 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -14649,7 +14649,7 @@
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -14674,7 +14674,7 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -14749,7 +14749,7 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -14774,7 +14774,7 @@
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -14799,7 +14799,7 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -14874,7 +14874,7 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -14899,7 +14899,7 @@
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -14924,7 +14924,7 @@
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -14999,7 +14999,7 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -15024,7 +15024,7 @@
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -15049,7 +15049,7 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -15124,7 +15124,7 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -15149,7 +15149,7 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -15174,7 +15174,7 @@
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -15249,7 +15249,7 @@
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -15274,7 +15274,7 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -15299,7 +15299,7 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -15374,7 +15374,7 @@
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -15399,7 +15399,7 @@
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -15424,7 +15424,7 @@
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -15499,7 +15499,7 @@
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -15524,7 +15524,7 @@
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -15549,7 +15549,7 @@
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -15624,7 +15624,7 @@
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -15649,7 +15649,7 @@
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -15674,7 +15674,7 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -15749,7 +15749,7 @@
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -15774,7 +15774,7 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -15799,7 +15799,7 @@
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -15874,7 +15874,7 @@
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -15899,7 +15899,7 @@
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -15924,7 +15924,7 @@
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -15999,7 +15999,7 @@
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -16024,7 +16024,7 @@
         <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -16049,7 +16049,7 @@
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -16124,7 +16124,7 @@
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -16149,7 +16149,7 @@
         <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -16174,7 +16174,7 @@
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -16249,7 +16249,7 @@
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -16274,7 +16274,7 @@
         <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -16299,7 +16299,7 @@
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -16374,7 +16374,7 @@
         <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -16399,7 +16399,7 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -16424,7 +16424,7 @@
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -16499,7 +16499,7 @@
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -16524,7 +16524,7 @@
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -16549,7 +16549,7 @@
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -16624,7 +16624,7 @@
         <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -16649,7 +16649,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -16674,7 +16674,7 @@
         <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -16749,7 +16749,7 @@
         <v>12</v>
       </c>
       <c r="G152" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -16774,7 +16774,7 @@
         <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -16799,7 +16799,7 @@
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -16874,7 +16874,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -16899,7 +16899,7 @@
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -16924,7 +16924,7 @@
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -16999,7 +16999,7 @@
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
@@ -17024,7 +17024,7 @@
         <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -17049,7 +17049,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -17124,7 +17124,7 @@
         <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -17149,7 +17149,7 @@
         <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -17174,7 +17174,7 @@
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -17249,7 +17249,7 @@
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -17274,7 +17274,7 @@
         <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -17299,7 +17299,7 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -17374,7 +17374,7 @@
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
@@ -17399,7 +17399,7 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -17424,7 +17424,7 @@
         <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
@@ -17499,7 +17499,7 @@
         <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -17524,7 +17524,7 @@
         <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -17549,7 +17549,7 @@
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -17624,7 +17624,7 @@
         <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -17649,7 +17649,7 @@
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -17674,7 +17674,7 @@
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
@@ -17749,7 +17749,7 @@
         <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
@@ -17774,7 +17774,7 @@
         <v>12</v>
       </c>
       <c r="G193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -17799,7 +17799,7 @@
         <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -17874,7 +17874,7 @@
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -17899,7 +17899,7 @@
         <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -17924,7 +17924,7 @@
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -17999,7 +17999,7 @@
         <v>12</v>
       </c>
       <c r="G202" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -18024,7 +18024,7 @@
         <v>12</v>
       </c>
       <c r="G203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
@@ -18049,7 +18049,7 @@
         <v>12</v>
       </c>
       <c r="G204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -18124,7 +18124,7 @@
         <v>12</v>
       </c>
       <c r="G207" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
@@ -18149,7 +18149,7 @@
         <v>12</v>
       </c>
       <c r="G208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -18174,7 +18174,7 @@
         <v>12</v>
       </c>
       <c r="G209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -18249,7 +18249,7 @@
         <v>12</v>
       </c>
       <c r="G212" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -18274,7 +18274,7 @@
         <v>12</v>
       </c>
       <c r="G213" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -18299,7 +18299,7 @@
         <v>12</v>
       </c>
       <c r="G214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -18374,7 +18374,7 @@
         <v>12</v>
       </c>
       <c r="G217" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -18399,7 +18399,7 @@
         <v>12</v>
       </c>
       <c r="G218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -18424,7 +18424,7 @@
         <v>12</v>
       </c>
       <c r="G219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
@@ -18499,7 +18499,7 @@
         <v>12</v>
       </c>
       <c r="G222" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -18524,7 +18524,7 @@
         <v>12</v>
       </c>
       <c r="G223" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -18549,7 +18549,7 @@
         <v>12</v>
       </c>
       <c r="G224" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -18624,7 +18624,7 @@
         <v>12</v>
       </c>
       <c r="G227" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
@@ -18649,7 +18649,7 @@
         <v>12</v>
       </c>
       <c r="G228" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
@@ -18674,7 +18674,7 @@
         <v>12</v>
       </c>
       <c r="G229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -18749,7 +18749,7 @@
         <v>12</v>
       </c>
       <c r="G232" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -18774,7 +18774,7 @@
         <v>12</v>
       </c>
       <c r="G233" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
@@ -18799,7 +18799,7 @@
         <v>12</v>
       </c>
       <c r="G234" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
@@ -18874,7 +18874,7 @@
         <v>12</v>
       </c>
       <c r="G237" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
@@ -18899,7 +18899,7 @@
         <v>12</v>
       </c>
       <c r="G238" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -18924,7 +18924,7 @@
         <v>12</v>
       </c>
       <c r="G239" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
@@ -18999,7 +18999,7 @@
         <v>12</v>
       </c>
       <c r="G242" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -19024,7 +19024,7 @@
         <v>12</v>
       </c>
       <c r="G243" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
@@ -19049,7 +19049,7 @@
         <v>12</v>
       </c>
       <c r="G244" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -19124,7 +19124,7 @@
         <v>12</v>
       </c>
       <c r="G247" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -19149,7 +19149,7 @@
         <v>12</v>
       </c>
       <c r="G248" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -19174,7 +19174,7 @@
         <v>12</v>
       </c>
       <c r="G249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
@@ -19249,7 +19249,7 @@
         <v>12</v>
       </c>
       <c r="G252" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -19274,7 +19274,7 @@
         <v>12</v>
       </c>
       <c r="G253" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -19299,7 +19299,7 @@
         <v>12</v>
       </c>
       <c r="G254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -19374,7 +19374,7 @@
         <v>12</v>
       </c>
       <c r="G257" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
@@ -19399,7 +19399,7 @@
         <v>12</v>
       </c>
       <c r="G258" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
@@ -19424,7 +19424,7 @@
         <v>12</v>
       </c>
       <c r="G259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -19499,7 +19499,7 @@
         <v>12</v>
       </c>
       <c r="G262" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -19524,7 +19524,7 @@
         <v>12</v>
       </c>
       <c r="G263" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -19549,7 +19549,7 @@
         <v>12</v>
       </c>
       <c r="G264" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
@@ -19624,7 +19624,7 @@
         <v>12</v>
       </c>
       <c r="G267" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -19649,7 +19649,7 @@
         <v>12</v>
       </c>
       <c r="G268" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -19674,7 +19674,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
@@ -19749,7 +19749,7 @@
         <v>12</v>
       </c>
       <c r="G272" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
@@ -19774,7 +19774,7 @@
         <v>12</v>
       </c>
       <c r="G273" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
@@ -19799,7 +19799,7 @@
         <v>12</v>
       </c>
       <c r="G274" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -19874,7 +19874,7 @@
         <v>12</v>
       </c>
       <c r="G277" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -19899,7 +19899,7 @@
         <v>12</v>
       </c>
       <c r="G278" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
@@ -19924,7 +19924,7 @@
         <v>12</v>
       </c>
       <c r="G279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
@@ -19999,7 +19999,7 @@
         <v>12</v>
       </c>
       <c r="G282" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.15">
@@ -20024,7 +20024,7 @@
         <v>12</v>
       </c>
       <c r="G283" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -20049,7 +20049,7 @@
         <v>12</v>
       </c>
       <c r="G284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -20124,7 +20124,7 @@
         <v>12</v>
       </c>
       <c r="G287" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
@@ -20149,7 +20149,7 @@
         <v>12</v>
       </c>
       <c r="G288" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
@@ -20174,7 +20174,7 @@
         <v>12</v>
       </c>
       <c r="G289" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -20249,7 +20249,7 @@
         <v>12</v>
       </c>
       <c r="G292" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -20274,7 +20274,7 @@
         <v>12</v>
       </c>
       <c r="G293" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
@@ -20299,7 +20299,7 @@
         <v>12</v>
       </c>
       <c r="G294" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
@@ -20374,7 +20374,7 @@
         <v>12</v>
       </c>
       <c r="G297" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
@@ -20399,7 +20399,7 @@
         <v>12</v>
       </c>
       <c r="G298" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -20424,7 +20424,7 @@
         <v>12</v>
       </c>
       <c r="G299" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
@@ -20499,7 +20499,7 @@
         <v>12</v>
       </c>
       <c r="G302" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -20524,7 +20524,7 @@
         <v>12</v>
       </c>
       <c r="G303" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
@@ -20549,7 +20549,7 @@
         <v>12</v>
       </c>
       <c r="G304" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -20624,7 +20624,7 @@
         <v>12</v>
       </c>
       <c r="G307" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -20649,7 +20649,7 @@
         <v>12</v>
       </c>
       <c r="G308" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -20674,7 +20674,7 @@
         <v>12</v>
       </c>
       <c r="G309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
@@ -20749,7 +20749,7 @@
         <v>12</v>
       </c>
       <c r="G312" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
@@ -20774,7 +20774,7 @@
         <v>12</v>
       </c>
       <c r="G313" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -20799,7 +20799,7 @@
         <v>12</v>
       </c>
       <c r="G314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -20874,7 +20874,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
@@ -20899,7 +20899,7 @@
         <v>12</v>
       </c>
       <c r="G318" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
@@ -20924,7 +20924,7 @@
         <v>12</v>
       </c>
       <c r="G319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -20999,7 +20999,7 @@
         <v>12</v>
       </c>
       <c r="G322" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -21024,7 +21024,7 @@
         <v>12</v>
       </c>
       <c r="G323" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.15">
@@ -21049,7 +21049,7 @@
         <v>12</v>
       </c>
       <c r="G324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.15">
@@ -21124,7 +21124,7 @@
         <v>12</v>
       </c>
       <c r="G327" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
@@ -21149,7 +21149,7 @@
         <v>12</v>
       </c>
       <c r="G328" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -21174,7 +21174,7 @@
         <v>12</v>
       </c>
       <c r="G329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
@@ -21249,7 +21249,7 @@
         <v>12</v>
       </c>
       <c r="G332" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
@@ -21274,7 +21274,7 @@
         <v>12</v>
       </c>
       <c r="G333" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
@@ -21299,7 +21299,7 @@
         <v>12</v>
       </c>
       <c r="G334" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -21374,7 +21374,7 @@
         <v>12</v>
       </c>
       <c r="G337" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -21399,7 +21399,7 @@
         <v>12</v>
       </c>
       <c r="G338" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
@@ -21424,7 +21424,7 @@
         <v>12</v>
       </c>
       <c r="G339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
@@ -21499,7 +21499,7 @@
         <v>12</v>
       </c>
       <c r="G342" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.15">
@@ -21524,7 +21524,7 @@
         <v>12</v>
       </c>
       <c r="G343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -21549,7 +21549,7 @@
         <v>12</v>
       </c>
       <c r="G344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
@@ -21624,7 +21624,7 @@
         <v>12</v>
       </c>
       <c r="G347" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.15">
@@ -21649,7 +21649,7 @@
         <v>12</v>
       </c>
       <c r="G348" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.15">
@@ -21674,7 +21674,7 @@
         <v>12</v>
       </c>
       <c r="G349" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -21749,7 +21749,7 @@
         <v>12</v>
       </c>
       <c r="G352" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -21774,7 +21774,7 @@
         <v>12</v>
       </c>
       <c r="G353" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.15">
@@ -21799,7 +21799,7 @@
         <v>12</v>
       </c>
       <c r="G354" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.15">
@@ -21874,7 +21874,7 @@
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.15">
@@ -21899,7 +21899,7 @@
         <v>12</v>
       </c>
       <c r="G358" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -21924,7 +21924,7 @@
         <v>12</v>
       </c>
       <c r="G359" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
@@ -21999,7 +21999,7 @@
         <v>12</v>
       </c>
       <c r="G362" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
@@ -22024,7 +22024,7 @@
         <v>12</v>
       </c>
       <c r="G363" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.15">
@@ -22049,7 +22049,7 @@
         <v>12</v>
       </c>
       <c r="G364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -22124,7 +22124,7 @@
         <v>12</v>
       </c>
       <c r="G367" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -22149,7 +22149,7 @@
         <v>12</v>
       </c>
       <c r="G368" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
@@ -22174,7 +22174,7 @@
         <v>12</v>
       </c>
       <c r="G369" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
@@ -22249,7 +22249,7 @@
         <v>12</v>
       </c>
       <c r="G372" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.15">
@@ -22274,7 +22274,7 @@
         <v>12</v>
       </c>
       <c r="G373" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -22299,7 +22299,7 @@
         <v>12</v>
       </c>
       <c r="G374" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
@@ -22374,7 +22374,7 @@
         <v>12</v>
       </c>
       <c r="G377" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.15">
@@ -22399,7 +22399,7 @@
         <v>12</v>
       </c>
       <c r="G378" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.15">
@@ -22424,7 +22424,7 @@
         <v>12</v>
       </c>
       <c r="G379" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -22499,7 +22499,7 @@
         <v>12</v>
       </c>
       <c r="G382" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -22524,7 +22524,7 @@
         <v>12</v>
       </c>
       <c r="G383" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
@@ -22549,7 +22549,7 @@
         <v>12</v>
       </c>
       <c r="G384" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
@@ -22624,7 +22624,7 @@
         <v>12</v>
       </c>
       <c r="G387" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
@@ -22649,7 +22649,7 @@
         <v>12</v>
       </c>
       <c r="G388" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -22674,7 +22674,7 @@
         <v>12</v>
       </c>
       <c r="G389" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
@@ -22749,7 +22749,7 @@
         <v>12</v>
       </c>
       <c r="G392" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
@@ -22774,7 +22774,7 @@
         <v>12</v>
       </c>
       <c r="G393" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
@@ -22799,7 +22799,7 @@
         <v>12</v>
       </c>
       <c r="G394" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -22874,7 +22874,7 @@
         <v>12</v>
       </c>
       <c r="G397" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -22899,7 +22899,7 @@
         <v>12</v>
       </c>
       <c r="G398" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -22924,7 +22924,7 @@
         <v>12</v>
       </c>
       <c r="G399" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
@@ -22999,7 +22999,7 @@
         <v>12</v>
       </c>
       <c r="G402" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.15">
@@ -23024,7 +23024,7 @@
         <v>12</v>
       </c>
       <c r="G403" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -23049,7 +23049,7 @@
         <v>12</v>
       </c>
       <c r="G404" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
@@ -23124,7 +23124,7 @@
         <v>12</v>
       </c>
       <c r="G407" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
@@ -23149,7 +23149,7 @@
         <v>12</v>
       </c>
       <c r="G408" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
@@ -23174,7 +23174,7 @@
         <v>12</v>
       </c>
       <c r="G409" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -23249,7 +23249,7 @@
         <v>12</v>
       </c>
       <c r="G412" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -23274,7 +23274,7 @@
         <v>12</v>
       </c>
       <c r="G413" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
@@ -23299,7 +23299,7 @@
         <v>12</v>
       </c>
       <c r="G414" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
@@ -23374,7 +23374,7 @@
         <v>12</v>
       </c>
       <c r="G417" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.15">
@@ -23399,7 +23399,7 @@
         <v>12</v>
       </c>
       <c r="G418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -23424,7 +23424,7 @@
         <v>12</v>
       </c>
       <c r="G419" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.15">
@@ -23499,7 +23499,7 @@
         <v>12</v>
       </c>
       <c r="G422" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -23524,7 +23524,7 @@
         <v>12</v>
       </c>
       <c r="G423" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.15">
@@ -23549,7 +23549,7 @@
         <v>12</v>
       </c>
       <c r="G424" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -23624,7 +23624,7 @@
         <v>12</v>
       </c>
       <c r="G427" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -23649,7 +23649,7 @@
         <v>12</v>
       </c>
       <c r="G428" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -23674,7 +23674,7 @@
         <v>12</v>
       </c>
       <c r="G429" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
@@ -23749,7 +23749,7 @@
         <v>12</v>
       </c>
       <c r="G432" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.15">
@@ -23774,7 +23774,7 @@
         <v>12</v>
       </c>
       <c r="G433" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -23799,7 +23799,7 @@
         <v>12</v>
       </c>
       <c r="G434" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -23874,7 +23874,7 @@
         <v>12</v>
       </c>
       <c r="G437" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.15">
@@ -23899,7 +23899,7 @@
         <v>12</v>
       </c>
       <c r="G438" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
@@ -23924,7 +23924,7 @@
         <v>12</v>
       </c>
       <c r="G439" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -23999,7 +23999,7 @@
         <v>12</v>
       </c>
       <c r="G442" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -24024,7 +24024,7 @@
         <v>12</v>
       </c>
       <c r="G443" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.15">
@@ -24049,7 +24049,7 @@
         <v>12</v>
       </c>
       <c r="G444" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.15">
@@ -24124,7 +24124,7 @@
         <v>12</v>
       </c>
       <c r="G447" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.15">
@@ -24149,7 +24149,7 @@
         <v>12</v>
       </c>
       <c r="G448" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -24174,7 +24174,7 @@
         <v>12</v>
       </c>
       <c r="G449" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.15">
@@ -24249,7 +24249,7 @@
         <v>12</v>
       </c>
       <c r="G452" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -24274,7 +24274,7 @@
         <v>12</v>
       </c>
       <c r="G453" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.15">
@@ -24299,7 +24299,7 @@
         <v>12</v>
       </c>
       <c r="G454" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -24374,7 +24374,7 @@
         <v>12</v>
       </c>
       <c r="G457" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -24399,7 +24399,7 @@
         <v>12</v>
       </c>
       <c r="G458" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -24424,7 +24424,7 @@
         <v>12</v>
       </c>
       <c r="G459" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.15">
@@ -24499,7 +24499,7 @@
         <v>12</v>
       </c>
       <c r="G462" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.15">
@@ -24524,7 +24524,7 @@
         <v>12</v>
       </c>
       <c r="G463" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -24549,7 +24549,7 @@
         <v>12</v>
       </c>
       <c r="G464" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -24624,7 +24624,7 @@
         <v>12</v>
       </c>
       <c r="G467" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.15">
@@ -24649,7 +24649,7 @@
         <v>12</v>
       </c>
       <c r="G468" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.15">
@@ -24674,7 +24674,7 @@
         <v>12</v>
       </c>
       <c r="G469" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -24749,7 +24749,7 @@
         <v>12</v>
       </c>
       <c r="G472" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -24774,7 +24774,7 @@
         <v>12</v>
       </c>
       <c r="G473" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.15">
@@ -24799,7 +24799,7 @@
         <v>12</v>
       </c>
       <c r="G474" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.15">
@@ -24874,7 +24874,7 @@
         <v>12</v>
       </c>
       <c r="G477" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.15">
@@ -24899,7 +24899,7 @@
         <v>12</v>
       </c>
       <c r="G478" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -24924,7 +24924,7 @@
         <v>12</v>
       </c>
       <c r="G479" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.15">
@@ -24999,7 +24999,7 @@
         <v>12</v>
       </c>
       <c r="G482" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.15">
@@ -25024,7 +25024,7 @@
         <v>12</v>
       </c>
       <c r="G483" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.15">
@@ -25049,7 +25049,7 @@
         <v>12</v>
       </c>
       <c r="G484" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -25124,7 +25124,7 @@
         <v>12</v>
       </c>
       <c r="G487" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -25149,7 +25149,7 @@
         <v>12</v>
       </c>
       <c r="G488" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -25174,7 +25174,7 @@
         <v>12</v>
       </c>
       <c r="G489" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.15">
@@ -25249,7 +25249,7 @@
         <v>12</v>
       </c>
       <c r="G492" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.15">
@@ -25274,7 +25274,7 @@
         <v>12</v>
       </c>
       <c r="G493" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -25299,7 +25299,7 @@
         <v>12</v>
       </c>
       <c r="G494" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.15">
@@ -25374,7 +25374,7 @@
         <v>12</v>
       </c>
       <c r="G497" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.15">
@@ -25399,7 +25399,7 @@
         <v>12</v>
       </c>
       <c r="G498" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.15">
@@ -25424,7 +25424,7 @@
         <v>12</v>
       </c>
       <c r="G499" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -25521,7 +25521,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -25546,7 +25546,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -25571,7 +25571,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -25646,7 +25646,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -25671,7 +25671,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -25696,7 +25696,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -25771,7 +25771,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -25796,7 +25796,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -25821,7 +25821,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -25896,7 +25896,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -25921,7 +25921,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -25946,7 +25946,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -26021,7 +26021,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -26046,7 +26046,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -26071,7 +26071,7 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -26146,7 +26146,7 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -26171,7 +26171,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -26196,7 +26196,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -26271,7 +26271,7 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -26296,7 +26296,7 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -26321,7 +26321,7 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -26396,7 +26396,7 @@
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -26421,7 +26421,7 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -26446,7 +26446,7 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -26521,7 +26521,7 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -26546,7 +26546,7 @@
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -26571,7 +26571,7 @@
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -26646,7 +26646,7 @@
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -26671,7 +26671,7 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -26696,7 +26696,7 @@
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -26771,7 +26771,7 @@
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -26796,7 +26796,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -26821,7 +26821,7 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -26896,7 +26896,7 @@
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -26921,7 +26921,7 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -26946,7 +26946,7 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -27021,7 +27021,7 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -27046,7 +27046,7 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -27071,7 +27071,7 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -27146,7 +27146,7 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -27171,7 +27171,7 @@
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -27196,7 +27196,7 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -27271,7 +27271,7 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -27296,7 +27296,7 @@
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -27321,7 +27321,7 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -27396,7 +27396,7 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -27421,7 +27421,7 @@
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -27446,7 +27446,7 @@
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -27521,7 +27521,7 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -27546,7 +27546,7 @@
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -27571,7 +27571,7 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -27646,7 +27646,7 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -27671,7 +27671,7 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -27696,7 +27696,7 @@
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -27771,7 +27771,7 @@
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -27796,7 +27796,7 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -27821,7 +27821,7 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -27896,7 +27896,7 @@
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -27921,7 +27921,7 @@
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -27946,7 +27946,7 @@
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -28021,7 +28021,7 @@
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -28046,7 +28046,7 @@
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -28071,7 +28071,7 @@
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -28146,7 +28146,7 @@
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -28171,7 +28171,7 @@
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -28196,7 +28196,7 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -28271,7 +28271,7 @@
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -28296,7 +28296,7 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -28321,7 +28321,7 @@
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -28396,7 +28396,7 @@
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -28421,7 +28421,7 @@
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -28446,7 +28446,7 @@
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -28521,7 +28521,7 @@
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -28546,7 +28546,7 @@
         <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -28571,7 +28571,7 @@
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -28646,7 +28646,7 @@
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -28671,7 +28671,7 @@
         <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -28696,7 +28696,7 @@
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -28771,7 +28771,7 @@
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -28796,7 +28796,7 @@
         <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -28821,7 +28821,7 @@
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -28896,7 +28896,7 @@
         <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -28921,7 +28921,7 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -28946,7 +28946,7 @@
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -29021,7 +29021,7 @@
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -29046,7 +29046,7 @@
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -29071,7 +29071,7 @@
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -29146,7 +29146,7 @@
         <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -29171,7 +29171,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -29196,7 +29196,7 @@
         <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -29271,7 +29271,7 @@
         <v>12</v>
       </c>
       <c r="G152" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -29296,7 +29296,7 @@
         <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -29321,7 +29321,7 @@
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -29396,7 +29396,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -29421,7 +29421,7 @@
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -29446,7 +29446,7 @@
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -29521,7 +29521,7 @@
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
@@ -29546,7 +29546,7 @@
         <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -29571,7 +29571,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -29646,7 +29646,7 @@
         <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -29671,7 +29671,7 @@
         <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -29696,7 +29696,7 @@
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -29771,7 +29771,7 @@
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -29796,7 +29796,7 @@
         <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -29821,7 +29821,7 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -29896,7 +29896,7 @@
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
@@ -29921,7 +29921,7 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -29946,7 +29946,7 @@
         <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
@@ -30021,7 +30021,7 @@
         <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -30046,7 +30046,7 @@
         <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -30071,7 +30071,7 @@
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -30146,7 +30146,7 @@
         <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -30171,7 +30171,7 @@
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -30196,7 +30196,7 @@
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
@@ -30271,7 +30271,7 @@
         <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
@@ -30296,7 +30296,7 @@
         <v>12</v>
       </c>
       <c r="G193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -30321,7 +30321,7 @@
         <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -30396,7 +30396,7 @@
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -30421,7 +30421,7 @@
         <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -30446,7 +30446,7 @@
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -30521,7 +30521,7 @@
         <v>12</v>
       </c>
       <c r="G202" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -30546,7 +30546,7 @@
         <v>12</v>
       </c>
       <c r="G203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
@@ -30571,7 +30571,7 @@
         <v>12</v>
       </c>
       <c r="G204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -30646,7 +30646,7 @@
         <v>12</v>
       </c>
       <c r="G207" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
@@ -30671,7 +30671,7 @@
         <v>12</v>
       </c>
       <c r="G208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -30696,7 +30696,7 @@
         <v>12</v>
       </c>
       <c r="G209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -30771,7 +30771,7 @@
         <v>12</v>
       </c>
       <c r="G212" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -30796,7 +30796,7 @@
         <v>12</v>
       </c>
       <c r="G213" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -30821,7 +30821,7 @@
         <v>12</v>
       </c>
       <c r="G214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -30896,7 +30896,7 @@
         <v>12</v>
       </c>
       <c r="G217" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -30921,7 +30921,7 @@
         <v>12</v>
       </c>
       <c r="G218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -30946,7 +30946,7 @@
         <v>12</v>
       </c>
       <c r="G219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
@@ -31021,7 +31021,7 @@
         <v>12</v>
       </c>
       <c r="G222" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -31046,7 +31046,7 @@
         <v>12</v>
       </c>
       <c r="G223" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -31071,7 +31071,7 @@
         <v>12</v>
       </c>
       <c r="G224" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -31146,7 +31146,7 @@
         <v>12</v>
       </c>
       <c r="G227" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
@@ -31171,7 +31171,7 @@
         <v>12</v>
       </c>
       <c r="G228" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
@@ -31196,7 +31196,7 @@
         <v>12</v>
       </c>
       <c r="G229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -31271,7 +31271,7 @@
         <v>12</v>
       </c>
       <c r="G232" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -31296,7 +31296,7 @@
         <v>12</v>
       </c>
       <c r="G233" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
@@ -31321,7 +31321,7 @@
         <v>12</v>
       </c>
       <c r="G234" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
@@ -31396,7 +31396,7 @@
         <v>12</v>
       </c>
       <c r="G237" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
@@ -31421,7 +31421,7 @@
         <v>12</v>
       </c>
       <c r="G238" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -31446,7 +31446,7 @@
         <v>12</v>
       </c>
       <c r="G239" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
@@ -31521,7 +31521,7 @@
         <v>12</v>
       </c>
       <c r="G242" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -31546,7 +31546,7 @@
         <v>12</v>
       </c>
       <c r="G243" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
@@ -31571,7 +31571,7 @@
         <v>12</v>
       </c>
       <c r="G244" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -31646,7 +31646,7 @@
         <v>12</v>
       </c>
       <c r="G247" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -31671,7 +31671,7 @@
         <v>12</v>
       </c>
       <c r="G248" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -31696,7 +31696,7 @@
         <v>12</v>
       </c>
       <c r="G249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
@@ -31771,7 +31771,7 @@
         <v>12</v>
       </c>
       <c r="G252" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -31796,7 +31796,7 @@
         <v>12</v>
       </c>
       <c r="G253" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -31821,7 +31821,7 @@
         <v>12</v>
       </c>
       <c r="G254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -31896,7 +31896,7 @@
         <v>12</v>
       </c>
       <c r="G257" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
@@ -31921,7 +31921,7 @@
         <v>12</v>
       </c>
       <c r="G258" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
@@ -31946,7 +31946,7 @@
         <v>12</v>
       </c>
       <c r="G259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -32021,7 +32021,7 @@
         <v>12</v>
       </c>
       <c r="G262" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -32046,7 +32046,7 @@
         <v>12</v>
       </c>
       <c r="G263" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -32071,7 +32071,7 @@
         <v>12</v>
       </c>
       <c r="G264" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
@@ -32146,7 +32146,7 @@
         <v>12</v>
       </c>
       <c r="G267" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -32171,7 +32171,7 @@
         <v>12</v>
       </c>
       <c r="G268" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -32196,7 +32196,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
@@ -32271,7 +32271,7 @@
         <v>12</v>
       </c>
       <c r="G272" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
@@ -32296,7 +32296,7 @@
         <v>12</v>
       </c>
       <c r="G273" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
@@ -32321,7 +32321,7 @@
         <v>12</v>
       </c>
       <c r="G274" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -32396,7 +32396,7 @@
         <v>12</v>
       </c>
       <c r="G277" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -32421,7 +32421,7 @@
         <v>12</v>
       </c>
       <c r="G278" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
@@ -32446,7 +32446,7 @@
         <v>12</v>
       </c>
       <c r="G279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
@@ -32521,7 +32521,7 @@
         <v>12</v>
       </c>
       <c r="G282" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.15">
@@ -32546,7 +32546,7 @@
         <v>12</v>
       </c>
       <c r="G283" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -32571,7 +32571,7 @@
         <v>12</v>
       </c>
       <c r="G284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -32646,7 +32646,7 @@
         <v>12</v>
       </c>
       <c r="G287" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
@@ -32671,7 +32671,7 @@
         <v>12</v>
       </c>
       <c r="G288" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
@@ -32696,7 +32696,7 @@
         <v>12</v>
       </c>
       <c r="G289" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -32771,7 +32771,7 @@
         <v>12</v>
       </c>
       <c r="G292" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -32796,7 +32796,7 @@
         <v>12</v>
       </c>
       <c r="G293" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
@@ -32821,7 +32821,7 @@
         <v>12</v>
       </c>
       <c r="G294" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
@@ -32896,7 +32896,7 @@
         <v>12</v>
       </c>
       <c r="G297" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
@@ -32921,7 +32921,7 @@
         <v>12</v>
       </c>
       <c r="G298" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -32946,7 +32946,7 @@
         <v>12</v>
       </c>
       <c r="G299" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
@@ -33021,7 +33021,7 @@
         <v>12</v>
       </c>
       <c r="G302" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -33046,7 +33046,7 @@
         <v>12</v>
       </c>
       <c r="G303" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
@@ -33071,7 +33071,7 @@
         <v>12</v>
       </c>
       <c r="G304" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -33146,7 +33146,7 @@
         <v>12</v>
       </c>
       <c r="G307" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -33171,7 +33171,7 @@
         <v>12</v>
       </c>
       <c r="G308" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -33196,7 +33196,7 @@
         <v>12</v>
       </c>
       <c r="G309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
@@ -33271,7 +33271,7 @@
         <v>12</v>
       </c>
       <c r="G312" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
@@ -33296,7 +33296,7 @@
         <v>12</v>
       </c>
       <c r="G313" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -33321,7 +33321,7 @@
         <v>12</v>
       </c>
       <c r="G314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -33396,7 +33396,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
@@ -33421,7 +33421,7 @@
         <v>12</v>
       </c>
       <c r="G318" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
@@ -33446,7 +33446,7 @@
         <v>12</v>
       </c>
       <c r="G319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -33521,7 +33521,7 @@
         <v>12</v>
       </c>
       <c r="G322" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -33546,7 +33546,7 @@
         <v>12</v>
       </c>
       <c r="G323" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.15">
@@ -33571,7 +33571,7 @@
         <v>12</v>
       </c>
       <c r="G324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.15">
@@ -33646,7 +33646,7 @@
         <v>12</v>
       </c>
       <c r="G327" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
@@ -33671,7 +33671,7 @@
         <v>12</v>
       </c>
       <c r="G328" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -33696,7 +33696,7 @@
         <v>12</v>
       </c>
       <c r="G329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
@@ -33771,7 +33771,7 @@
         <v>12</v>
       </c>
       <c r="G332" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
@@ -33796,7 +33796,7 @@
         <v>12</v>
       </c>
       <c r="G333" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
@@ -33821,7 +33821,7 @@
         <v>12</v>
       </c>
       <c r="G334" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -33896,7 +33896,7 @@
         <v>12</v>
       </c>
       <c r="G337" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -33921,7 +33921,7 @@
         <v>12</v>
       </c>
       <c r="G338" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
@@ -33946,7 +33946,7 @@
         <v>12</v>
       </c>
       <c r="G339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
@@ -34021,7 +34021,7 @@
         <v>12</v>
       </c>
       <c r="G342" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.15">
@@ -34046,7 +34046,7 @@
         <v>12</v>
       </c>
       <c r="G343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -34071,7 +34071,7 @@
         <v>12</v>
       </c>
       <c r="G344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
@@ -34146,7 +34146,7 @@
         <v>12</v>
       </c>
       <c r="G347" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.15">
@@ -34171,7 +34171,7 @@
         <v>12</v>
       </c>
       <c r="G348" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.15">
@@ -34196,7 +34196,7 @@
         <v>12</v>
       </c>
       <c r="G349" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -34271,7 +34271,7 @@
         <v>12</v>
       </c>
       <c r="G352" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -34296,7 +34296,7 @@
         <v>12</v>
       </c>
       <c r="G353" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.15">
@@ -34321,7 +34321,7 @@
         <v>12</v>
       </c>
       <c r="G354" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.15">
@@ -34396,7 +34396,7 @@
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.15">
@@ -34421,7 +34421,7 @@
         <v>12</v>
       </c>
       <c r="G358" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -34446,7 +34446,7 @@
         <v>12</v>
       </c>
       <c r="G359" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
@@ -34521,7 +34521,7 @@
         <v>12</v>
       </c>
       <c r="G362" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
@@ -34546,7 +34546,7 @@
         <v>12</v>
       </c>
       <c r="G363" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.15">
@@ -34571,7 +34571,7 @@
         <v>12</v>
       </c>
       <c r="G364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -34646,7 +34646,7 @@
         <v>12</v>
       </c>
       <c r="G367" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -34671,7 +34671,7 @@
         <v>12</v>
       </c>
       <c r="G368" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
@@ -34696,7 +34696,7 @@
         <v>12</v>
       </c>
       <c r="G369" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
@@ -34771,7 +34771,7 @@
         <v>12</v>
       </c>
       <c r="G372" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.15">
@@ -34796,7 +34796,7 @@
         <v>12</v>
       </c>
       <c r="G373" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -34821,7 +34821,7 @@
         <v>12</v>
       </c>
       <c r="G374" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
@@ -34896,7 +34896,7 @@
         <v>12</v>
       </c>
       <c r="G377" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.15">
@@ -34921,7 +34921,7 @@
         <v>12</v>
       </c>
       <c r="G378" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.15">
@@ -34946,7 +34946,7 @@
         <v>12</v>
       </c>
       <c r="G379" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -35021,7 +35021,7 @@
         <v>12</v>
       </c>
       <c r="G382" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -35046,7 +35046,7 @@
         <v>12</v>
       </c>
       <c r="G383" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
@@ -35071,7 +35071,7 @@
         <v>12</v>
       </c>
       <c r="G384" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
@@ -35146,7 +35146,7 @@
         <v>12</v>
       </c>
       <c r="G387" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
@@ -35171,7 +35171,7 @@
         <v>12</v>
       </c>
       <c r="G388" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -35196,7 +35196,7 @@
         <v>12</v>
       </c>
       <c r="G389" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
@@ -35271,7 +35271,7 @@
         <v>12</v>
       </c>
       <c r="G392" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
@@ -35296,7 +35296,7 @@
         <v>12</v>
       </c>
       <c r="G393" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
@@ -35321,7 +35321,7 @@
         <v>12</v>
       </c>
       <c r="G394" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -35396,7 +35396,7 @@
         <v>12</v>
       </c>
       <c r="G397" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -35421,7 +35421,7 @@
         <v>12</v>
       </c>
       <c r="G398" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -35446,7 +35446,7 @@
         <v>12</v>
       </c>
       <c r="G399" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
@@ -35521,7 +35521,7 @@
         <v>12</v>
       </c>
       <c r="G402" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.15">
@@ -35546,7 +35546,7 @@
         <v>12</v>
       </c>
       <c r="G403" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -35571,7 +35571,7 @@
         <v>12</v>
       </c>
       <c r="G404" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
@@ -35646,7 +35646,7 @@
         <v>12</v>
       </c>
       <c r="G407" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
@@ -35671,7 +35671,7 @@
         <v>12</v>
       </c>
       <c r="G408" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
@@ -35696,7 +35696,7 @@
         <v>12</v>
       </c>
       <c r="G409" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -35771,7 +35771,7 @@
         <v>12</v>
       </c>
       <c r="G412" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -35796,7 +35796,7 @@
         <v>12</v>
       </c>
       <c r="G413" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
@@ -35821,7 +35821,7 @@
         <v>12</v>
       </c>
       <c r="G414" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
@@ -35896,7 +35896,7 @@
         <v>12</v>
       </c>
       <c r="G417" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.15">
@@ -35921,7 +35921,7 @@
         <v>12</v>
       </c>
       <c r="G418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -35946,7 +35946,7 @@
         <v>12</v>
       </c>
       <c r="G419" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.15">
@@ -36021,7 +36021,7 @@
         <v>12</v>
       </c>
       <c r="G422" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -36046,7 +36046,7 @@
         <v>12</v>
       </c>
       <c r="G423" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.15">
@@ -36071,7 +36071,7 @@
         <v>12</v>
       </c>
       <c r="G424" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -36146,7 +36146,7 @@
         <v>12</v>
       </c>
       <c r="G427" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -36171,7 +36171,7 @@
         <v>12</v>
       </c>
       <c r="G428" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -36196,7 +36196,7 @@
         <v>12</v>
       </c>
       <c r="G429" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
@@ -36271,7 +36271,7 @@
         <v>12</v>
       </c>
       <c r="G432" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.15">
@@ -36296,7 +36296,7 @@
         <v>12</v>
       </c>
       <c r="G433" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -36321,7 +36321,7 @@
         <v>12</v>
       </c>
       <c r="G434" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -36396,7 +36396,7 @@
         <v>12</v>
       </c>
       <c r="G437" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.15">
@@ -36421,7 +36421,7 @@
         <v>12</v>
       </c>
       <c r="G438" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
@@ -36446,7 +36446,7 @@
         <v>12</v>
       </c>
       <c r="G439" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -36521,7 +36521,7 @@
         <v>12</v>
       </c>
       <c r="G442" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -36546,7 +36546,7 @@
         <v>12</v>
       </c>
       <c r="G443" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.15">
@@ -36571,7 +36571,7 @@
         <v>12</v>
       </c>
       <c r="G444" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.15">
@@ -36646,7 +36646,7 @@
         <v>12</v>
       </c>
       <c r="G447" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.15">
@@ -36671,7 +36671,7 @@
         <v>12</v>
       </c>
       <c r="G448" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -36696,7 +36696,7 @@
         <v>12</v>
       </c>
       <c r="G449" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.15">
@@ -36771,7 +36771,7 @@
         <v>12</v>
       </c>
       <c r="G452" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -36796,7 +36796,7 @@
         <v>12</v>
       </c>
       <c r="G453" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.15">
@@ -36821,7 +36821,7 @@
         <v>12</v>
       </c>
       <c r="G454" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -36896,7 +36896,7 @@
         <v>12</v>
       </c>
       <c r="G457" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -36921,7 +36921,7 @@
         <v>12</v>
       </c>
       <c r="G458" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -36946,7 +36946,7 @@
         <v>12</v>
       </c>
       <c r="G459" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.15">
@@ -37021,7 +37021,7 @@
         <v>12</v>
       </c>
       <c r="G462" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.15">
@@ -37046,7 +37046,7 @@
         <v>12</v>
       </c>
       <c r="G463" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -37071,7 +37071,7 @@
         <v>12</v>
       </c>
       <c r="G464" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -37146,7 +37146,7 @@
         <v>12</v>
       </c>
       <c r="G467" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.15">
@@ -37171,7 +37171,7 @@
         <v>12</v>
       </c>
       <c r="G468" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.15">
@@ -37196,7 +37196,7 @@
         <v>12</v>
       </c>
       <c r="G469" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -37271,7 +37271,7 @@
         <v>12</v>
       </c>
       <c r="G472" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -37296,7 +37296,7 @@
         <v>12</v>
       </c>
       <c r="G473" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.15">
@@ -37321,7 +37321,7 @@
         <v>12</v>
       </c>
       <c r="G474" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.15">
@@ -37396,7 +37396,7 @@
         <v>12</v>
       </c>
       <c r="G477" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.15">
@@ -37421,7 +37421,7 @@
         <v>12</v>
       </c>
       <c r="G478" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -37446,7 +37446,7 @@
         <v>12</v>
       </c>
       <c r="G479" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.15">
@@ -37521,7 +37521,7 @@
         <v>12</v>
       </c>
       <c r="G482" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.15">
@@ -37546,7 +37546,7 @@
         <v>12</v>
       </c>
       <c r="G483" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.15">
@@ -37571,7 +37571,7 @@
         <v>12</v>
       </c>
       <c r="G484" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -37646,7 +37646,7 @@
         <v>12</v>
       </c>
       <c r="G487" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -37671,7 +37671,7 @@
         <v>12</v>
       </c>
       <c r="G488" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -37696,7 +37696,7 @@
         <v>12</v>
       </c>
       <c r="G489" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.15">
@@ -37771,7 +37771,7 @@
         <v>12</v>
       </c>
       <c r="G492" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.15">
@@ -37796,7 +37796,7 @@
         <v>12</v>
       </c>
       <c r="G493" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -37821,7 +37821,7 @@
         <v>12</v>
       </c>
       <c r="G494" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.15">
@@ -37896,7 +37896,7 @@
         <v>12</v>
       </c>
       <c r="G497" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.15">
@@ -37921,7 +37921,7 @@
         <v>12</v>
       </c>
       <c r="G498" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.15">
@@ -37946,7 +37946,7 @@
         <v>12</v>
       </c>
       <c r="G499" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">

--- a/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
+++ b/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
@@ -67,7 +67,7 @@
     <t>/mgtv/641886683.m3u8</t>
   </si>
   <si>
-    <t>/bptv/3221226438.m3u8</t>
+    <t>/itv/5000000010000017540.m3u8?cdn=bestzb&amp;Contentid=5000000010000017540&amp;livemode=1&amp;stbId=3</t>
   </si>
 </sst>
 </file>

--- a/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
+++ b/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
@@ -67,7 +67,7 @@
     <t>/mgtv/641886683.m3u8</t>
   </si>
   <si>
-    <t>/itv/5000000010000017540.m3u8?cdn=bestzb&amp;Contentid=5000000010000017540&amp;livemode=1&amp;stbId=3</t>
+    <t>/bst/xsjhd@4000000</t>
   </si>
 </sst>
 </file>

--- a/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
+++ b/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
@@ -61,13 +61,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nptv/cctv16.m3u8</t>
-  </si>
-  <si>
     <t>/mgtv/641886683.m3u8</t>
   </si>
   <si>
     <t>/bst/xsjhd@4000000</t>
+  </si>
+  <si>
+    <t>/nptv/dongfang.m3u8</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -479,7 +479,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -629,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -754,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -829,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -929,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1054,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1079,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1204,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1279,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1379,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1504,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1529,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1579,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1654,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1679,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -1729,7 +1729,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -1804,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -1829,7 +1829,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -1879,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -1954,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -1979,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2029,7 +2029,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -2104,7 +2104,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -2129,7 +2129,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -2179,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -2254,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -2279,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -2329,7 +2329,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -2404,7 +2404,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -2429,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -2479,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -2554,7 +2554,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -2579,7 +2579,7 @@
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -2629,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -2704,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -2729,7 +2729,7 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -2779,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -2854,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -2879,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -2929,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -3004,7 +3004,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -3029,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -3079,7 +3079,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -3154,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -3179,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -3229,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -3304,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -3329,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -3379,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -3454,7 +3454,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -3479,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -3529,7 +3529,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -3604,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -3629,7 +3629,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -3679,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -3754,7 +3754,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -3779,7 +3779,7 @@
         <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -3829,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -3904,7 +3904,7 @@
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -3929,7 +3929,7 @@
         <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -3979,7 +3979,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -4054,7 +4054,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -4079,7 +4079,7 @@
         <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -4129,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -4204,7 +4204,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -4229,7 +4229,7 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -4279,7 +4279,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -4354,7 +4354,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -4379,7 +4379,7 @@
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -4429,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -4504,7 +4504,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -4529,7 +4529,7 @@
         <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -4579,7 +4579,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -4654,7 +4654,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -4679,7 +4679,7 @@
         <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -4729,7 +4729,7 @@
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -4804,7 +4804,7 @@
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -4829,7 +4829,7 @@
         <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -4879,7 +4879,7 @@
         <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -4954,7 +4954,7 @@
         <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -4979,7 +4979,7 @@
         <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -5029,7 +5029,7 @@
         <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -5104,7 +5104,7 @@
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -5129,7 +5129,7 @@
         <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -5179,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -5279,7 +5279,7 @@
         <v>11</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -5329,7 +5329,7 @@
         <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -5404,7 +5404,7 @@
         <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -5429,7 +5429,7 @@
         <v>11</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -5479,7 +5479,7 @@
         <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -5554,7 +5554,7 @@
         <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -5579,7 +5579,7 @@
         <v>11</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
@@ -5629,7 +5629,7 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -5704,7 +5704,7 @@
         <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -5729,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -5779,7 +5779,7 @@
         <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -5854,7 +5854,7 @@
         <v>11</v>
       </c>
       <c r="G217" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -5879,7 +5879,7 @@
         <v>11</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -5929,7 +5929,7 @@
         <v>11</v>
       </c>
       <c r="G220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -6004,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="G223" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -6029,7 +6029,7 @@
         <v>11</v>
       </c>
       <c r="G224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -6079,7 +6079,7 @@
         <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -6154,7 +6154,7 @@
         <v>11</v>
       </c>
       <c r="G229" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -6179,7 +6179,7 @@
         <v>11</v>
       </c>
       <c r="G230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
@@ -6229,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -6304,7 +6304,7 @@
         <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
@@ -6329,7 +6329,7 @@
         <v>11</v>
       </c>
       <c r="G236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
@@ -6379,7 +6379,7 @@
         <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -6454,7 +6454,7 @@
         <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
@@ -6479,7 +6479,7 @@
         <v>11</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -6529,7 +6529,7 @@
         <v>11</v>
       </c>
       <c r="G244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -6604,7 +6604,7 @@
         <v>11</v>
       </c>
       <c r="G247" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -6629,7 +6629,7 @@
         <v>11</v>
       </c>
       <c r="G248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -6679,7 +6679,7 @@
         <v>11</v>
       </c>
       <c r="G250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -6754,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -6779,7 +6779,7 @@
         <v>11</v>
       </c>
       <c r="G254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -6829,7 +6829,7 @@
         <v>11</v>
       </c>
       <c r="G256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
@@ -6904,7 +6904,7 @@
         <v>11</v>
       </c>
       <c r="G259" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -6929,7 +6929,7 @@
         <v>11</v>
       </c>
       <c r="G260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
@@ -6979,7 +6979,7 @@
         <v>11</v>
       </c>
       <c r="G262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -7054,7 +7054,7 @@
         <v>11</v>
       </c>
       <c r="G265" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -7079,7 +7079,7 @@
         <v>11</v>
       </c>
       <c r="G266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
@@ -7129,7 +7129,7 @@
         <v>11</v>
       </c>
       <c r="G268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -7204,7 +7204,7 @@
         <v>11</v>
       </c>
       <c r="G271" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -7229,7 +7229,7 @@
         <v>11</v>
       </c>
       <c r="G272" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
@@ -7279,7 +7279,7 @@
         <v>11</v>
       </c>
       <c r="G274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -7354,7 +7354,7 @@
         <v>11</v>
       </c>
       <c r="G277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -7379,7 +7379,7 @@
         <v>11</v>
       </c>
       <c r="G278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
@@ -7429,7 +7429,7 @@
         <v>11</v>
       </c>
       <c r="G280" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
@@ -7504,7 +7504,7 @@
         <v>11</v>
       </c>
       <c r="G283" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -7529,7 +7529,7 @@
         <v>11</v>
       </c>
       <c r="G284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -7579,7 +7579,7 @@
         <v>11</v>
       </c>
       <c r="G286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
@@ -7654,7 +7654,7 @@
         <v>11</v>
       </c>
       <c r="G289" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -7679,7 +7679,7 @@
         <v>11</v>
       </c>
       <c r="G290" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
@@ -7729,7 +7729,7 @@
         <v>11</v>
       </c>
       <c r="G292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -7804,7 +7804,7 @@
         <v>11</v>
       </c>
       <c r="G295" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
@@ -7829,7 +7829,7 @@
         <v>11</v>
       </c>
       <c r="G296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
@@ -7879,7 +7879,7 @@
         <v>11</v>
       </c>
       <c r="G298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -7954,7 +7954,7 @@
         <v>11</v>
       </c>
       <c r="G301" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
@@ -7979,7 +7979,7 @@
         <v>11</v>
       </c>
       <c r="G302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -8029,7 +8029,7 @@
         <v>11</v>
       </c>
       <c r="G304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -8104,7 +8104,7 @@
         <v>11</v>
       </c>
       <c r="G307" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -8129,7 +8129,7 @@
         <v>11</v>
       </c>
       <c r="G308" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -8179,7 +8179,7 @@
         <v>11</v>
       </c>
       <c r="G310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -8254,7 +8254,7 @@
         <v>11</v>
       </c>
       <c r="G313" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -8279,7 +8279,7 @@
         <v>11</v>
       </c>
       <c r="G314" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -8329,7 +8329,7 @@
         <v>11</v>
       </c>
       <c r="G316" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -8404,7 +8404,7 @@
         <v>11</v>
       </c>
       <c r="G319" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -8429,7 +8429,7 @@
         <v>11</v>
       </c>
       <c r="G320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
@@ -8479,7 +8479,7 @@
         <v>11</v>
       </c>
       <c r="G322" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -8554,7 +8554,7 @@
         <v>11</v>
       </c>
       <c r="G325" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -8579,7 +8579,7 @@
         <v>11</v>
       </c>
       <c r="G326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
@@ -8629,7 +8629,7 @@
         <v>11</v>
       </c>
       <c r="G328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -8704,7 +8704,7 @@
         <v>11</v>
       </c>
       <c r="G331" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
@@ -8729,7 +8729,7 @@
         <v>11</v>
       </c>
       <c r="G332" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
@@ -8779,7 +8779,7 @@
         <v>11</v>
       </c>
       <c r="G334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -8854,7 +8854,7 @@
         <v>11</v>
       </c>
       <c r="G337" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -8879,7 +8879,7 @@
         <v>11</v>
       </c>
       <c r="G338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
@@ -8929,7 +8929,7 @@
         <v>11</v>
       </c>
       <c r="G340" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
@@ -9004,7 +9004,7 @@
         <v>11</v>
       </c>
       <c r="G343" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -9029,7 +9029,7 @@
         <v>11</v>
       </c>
       <c r="G344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
@@ -9079,7 +9079,7 @@
         <v>11</v>
       </c>
       <c r="G346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
@@ -9154,7 +9154,7 @@
         <v>11</v>
       </c>
       <c r="G349" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -9179,7 +9179,7 @@
         <v>11</v>
       </c>
       <c r="G350" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.15">
@@ -9229,7 +9229,7 @@
         <v>11</v>
       </c>
       <c r="G352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -9304,7 +9304,7 @@
         <v>11</v>
       </c>
       <c r="G355" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
@@ -9329,7 +9329,7 @@
         <v>11</v>
       </c>
       <c r="G356" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.15">
@@ -9379,7 +9379,7 @@
         <v>11</v>
       </c>
       <c r="G358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -9454,7 +9454,7 @@
         <v>11</v>
       </c>
       <c r="G361" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
@@ -9479,7 +9479,7 @@
         <v>11</v>
       </c>
       <c r="G362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
@@ -9529,7 +9529,7 @@
         <v>11</v>
       </c>
       <c r="G364" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -9604,7 +9604,7 @@
         <v>11</v>
       </c>
       <c r="G367" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -9629,7 +9629,7 @@
         <v>11</v>
       </c>
       <c r="G368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
@@ -9679,7 +9679,7 @@
         <v>11</v>
       </c>
       <c r="G370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -9754,7 +9754,7 @@
         <v>11</v>
       </c>
       <c r="G373" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -9779,7 +9779,7 @@
         <v>11</v>
       </c>
       <c r="G374" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
@@ -9829,7 +9829,7 @@
         <v>11</v>
       </c>
       <c r="G376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
@@ -9904,7 +9904,7 @@
         <v>11</v>
       </c>
       <c r="G379" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -9929,7 +9929,7 @@
         <v>11</v>
       </c>
       <c r="G380" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
@@ -9979,7 +9979,7 @@
         <v>11</v>
       </c>
       <c r="G382" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -10054,7 +10054,7 @@
         <v>11</v>
       </c>
       <c r="G385" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -10079,7 +10079,7 @@
         <v>11</v>
       </c>
       <c r="G386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
@@ -10129,7 +10129,7 @@
         <v>11</v>
       </c>
       <c r="G388" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -10204,7 +10204,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -10229,7 +10229,7 @@
         <v>11</v>
       </c>
       <c r="G392" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
@@ -10279,7 +10279,7 @@
         <v>11</v>
       </c>
       <c r="G394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -10354,7 +10354,7 @@
         <v>11</v>
       </c>
       <c r="G397" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -10379,7 +10379,7 @@
         <v>11</v>
       </c>
       <c r="G398" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -10429,7 +10429,7 @@
         <v>11</v>
       </c>
       <c r="G400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -10504,7 +10504,7 @@
         <v>11</v>
       </c>
       <c r="G403" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -10529,7 +10529,7 @@
         <v>11</v>
       </c>
       <c r="G404" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
@@ -10579,7 +10579,7 @@
         <v>11</v>
       </c>
       <c r="G406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
@@ -10654,7 +10654,7 @@
         <v>11</v>
       </c>
       <c r="G409" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -10679,7 +10679,7 @@
         <v>11</v>
       </c>
       <c r="G410" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
@@ -10729,7 +10729,7 @@
         <v>11</v>
       </c>
       <c r="G412" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -10804,7 +10804,7 @@
         <v>11</v>
       </c>
       <c r="G415" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -10829,7 +10829,7 @@
         <v>11</v>
       </c>
       <c r="G416" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.15">
@@ -10879,7 +10879,7 @@
         <v>11</v>
       </c>
       <c r="G418" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -10954,7 +10954,7 @@
         <v>11</v>
       </c>
       <c r="G421" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -10979,7 +10979,7 @@
         <v>11</v>
       </c>
       <c r="G422" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -11029,7 +11029,7 @@
         <v>11</v>
       </c>
       <c r="G424" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -11104,7 +11104,7 @@
         <v>11</v>
       </c>
       <c r="G427" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -11129,7 +11129,7 @@
         <v>11</v>
       </c>
       <c r="G428" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -11179,7 +11179,7 @@
         <v>11</v>
       </c>
       <c r="G430" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -11254,7 +11254,7 @@
         <v>11</v>
       </c>
       <c r="G433" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -11279,7 +11279,7 @@
         <v>11</v>
       </c>
       <c r="G434" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -11329,7 +11329,7 @@
         <v>11</v>
       </c>
       <c r="G436" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -11404,7 +11404,7 @@
         <v>11</v>
       </c>
       <c r="G439" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -11429,7 +11429,7 @@
         <v>11</v>
       </c>
       <c r="G440" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.15">
@@ -11479,7 +11479,7 @@
         <v>11</v>
       </c>
       <c r="G442" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -11554,7 +11554,7 @@
         <v>11</v>
       </c>
       <c r="G445" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -11579,7 +11579,7 @@
         <v>11</v>
       </c>
       <c r="G446" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.15">
@@ -11629,7 +11629,7 @@
         <v>11</v>
       </c>
       <c r="G448" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -11704,7 +11704,7 @@
         <v>11</v>
       </c>
       <c r="G451" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
@@ -11729,7 +11729,7 @@
         <v>11</v>
       </c>
       <c r="G452" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -11779,7 +11779,7 @@
         <v>11</v>
       </c>
       <c r="G454" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -11854,7 +11854,7 @@
         <v>11</v>
       </c>
       <c r="G457" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -11879,7 +11879,7 @@
         <v>11</v>
       </c>
       <c r="G458" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -11929,7 +11929,7 @@
         <v>11</v>
       </c>
       <c r="G460" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.15">
@@ -12004,7 +12004,7 @@
         <v>11</v>
       </c>
       <c r="G463" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -12029,7 +12029,7 @@
         <v>11</v>
       </c>
       <c r="G464" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -12079,7 +12079,7 @@
         <v>11</v>
       </c>
       <c r="G466" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -12154,7 +12154,7 @@
         <v>11</v>
       </c>
       <c r="G469" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -12179,7 +12179,7 @@
         <v>11</v>
       </c>
       <c r="G470" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.15">
@@ -12229,7 +12229,7 @@
         <v>11</v>
       </c>
       <c r="G472" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -12304,7 +12304,7 @@
         <v>11</v>
       </c>
       <c r="G475" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.15">
@@ -12329,7 +12329,7 @@
         <v>11</v>
       </c>
       <c r="G476" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.15">
@@ -12379,7 +12379,7 @@
         <v>11</v>
       </c>
       <c r="G478" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -12454,7 +12454,7 @@
         <v>11</v>
       </c>
       <c r="G481" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.15">
@@ -12479,7 +12479,7 @@
         <v>11</v>
       </c>
       <c r="G482" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.15">
@@ -12529,7 +12529,7 @@
         <v>11</v>
       </c>
       <c r="G484" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -12604,7 +12604,7 @@
         <v>11</v>
       </c>
       <c r="G487" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -12629,7 +12629,7 @@
         <v>11</v>
       </c>
       <c r="G488" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -12679,7 +12679,7 @@
         <v>11</v>
       </c>
       <c r="G490" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.15">
@@ -12754,7 +12754,7 @@
         <v>11</v>
       </c>
       <c r="G493" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -12779,7 +12779,7 @@
         <v>11</v>
       </c>
       <c r="G494" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.15">
@@ -12829,7 +12829,7 @@
         <v>11</v>
       </c>
       <c r="G496" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.15">
@@ -12904,7 +12904,7 @@
         <v>11</v>
       </c>
       <c r="G499" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -12929,7 +12929,7 @@
         <v>11</v>
       </c>
       <c r="G500" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.15">
@@ -12979,7 +12979,7 @@
         <v>11</v>
       </c>
       <c r="G502" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
@@ -13054,7 +13054,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -13079,7 +13079,7 @@
         <v>11</v>
       </c>
       <c r="G506" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.15">
@@ -13129,7 +13129,7 @@
         <v>11</v>
       </c>
       <c r="G508" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.15">
@@ -13204,7 +13204,7 @@
         <v>11</v>
       </c>
       <c r="G511" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.15">
@@ -13229,7 +13229,7 @@
         <v>11</v>
       </c>
       <c r="G512" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.15">
@@ -13279,7 +13279,7 @@
         <v>11</v>
       </c>
       <c r="G514" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -13354,7 +13354,7 @@
         <v>11</v>
       </c>
       <c r="G517" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -13379,7 +13379,7 @@
         <v>11</v>
       </c>
       <c r="G518" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.15">
@@ -13429,7 +13429,7 @@
         <v>11</v>
       </c>
       <c r="G520" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.15">
@@ -13504,7 +13504,7 @@
         <v>11</v>
       </c>
       <c r="G523" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.15">
@@ -13529,7 +13529,7 @@
         <v>11</v>
       </c>
       <c r="G524" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.15">
@@ -13579,7 +13579,7 @@
         <v>11</v>
       </c>
       <c r="G526" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.15">
@@ -13654,7 +13654,7 @@
         <v>11</v>
       </c>
       <c r="G529" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.15">
@@ -13679,7 +13679,7 @@
         <v>11</v>
       </c>
       <c r="G530" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.15">
@@ -13729,7 +13729,7 @@
         <v>11</v>
       </c>
       <c r="G532" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
@@ -13804,7 +13804,7 @@
         <v>11</v>
       </c>
       <c r="G535" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.15">
@@ -13829,7 +13829,7 @@
         <v>11</v>
       </c>
       <c r="G536" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.15">
@@ -13879,7 +13879,7 @@
         <v>11</v>
       </c>
       <c r="G538" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.15">
@@ -13954,7 +13954,7 @@
         <v>11</v>
       </c>
       <c r="G541" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
@@ -13979,7 +13979,7 @@
         <v>11</v>
       </c>
       <c r="G542" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.15">
@@ -14029,7 +14029,7 @@
         <v>11</v>
       </c>
       <c r="G544" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.15">
@@ -14104,7 +14104,7 @@
         <v>11</v>
       </c>
       <c r="G547" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.15">
@@ -14129,7 +14129,7 @@
         <v>11</v>
       </c>
       <c r="G548" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.15">
@@ -14179,7 +14179,7 @@
         <v>11</v>
       </c>
       <c r="G550" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
@@ -14254,7 +14254,7 @@
         <v>11</v>
       </c>
       <c r="G553" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.15">
@@ -14279,7 +14279,7 @@
         <v>11</v>
       </c>
       <c r="G554" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.15">
@@ -14329,7 +14329,7 @@
         <v>11</v>
       </c>
       <c r="G556" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.15">
@@ -14404,7 +14404,7 @@
         <v>11</v>
       </c>
       <c r="G559" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.15">
@@ -14429,7 +14429,7 @@
         <v>11</v>
       </c>
       <c r="G560" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.15">
@@ -14479,7 +14479,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.15">
@@ -14554,7 +14554,7 @@
         <v>11</v>
       </c>
       <c r="G565" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.15">
@@ -14579,7 +14579,7 @@
         <v>11</v>
       </c>
       <c r="G566" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.15">
@@ -14629,7 +14629,7 @@
         <v>11</v>
       </c>
       <c r="G568" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.15">
@@ -14704,7 +14704,7 @@
         <v>11</v>
       </c>
       <c r="G571" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.15">
@@ -14729,7 +14729,7 @@
         <v>11</v>
       </c>
       <c r="G572" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.15">
@@ -14779,7 +14779,7 @@
         <v>11</v>
       </c>
       <c r="G574" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.15">
@@ -14854,7 +14854,7 @@
         <v>11</v>
       </c>
       <c r="G577" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.15">
@@ -14879,7 +14879,7 @@
         <v>11</v>
       </c>
       <c r="G578" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.15">
@@ -14929,7 +14929,7 @@
         <v>11</v>
       </c>
       <c r="G580" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.15">
@@ -15004,7 +15004,7 @@
         <v>11</v>
       </c>
       <c r="G583" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.15">
@@ -15029,7 +15029,7 @@
         <v>11</v>
       </c>
       <c r="G584" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.15">
@@ -15079,7 +15079,7 @@
         <v>11</v>
       </c>
       <c r="G586" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.15">
@@ -15154,7 +15154,7 @@
         <v>11</v>
       </c>
       <c r="G589" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.15">
@@ -15179,7 +15179,7 @@
         <v>11</v>
       </c>
       <c r="G590" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.15">
@@ -15229,7 +15229,7 @@
         <v>11</v>
       </c>
       <c r="G592" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.15">
@@ -15304,7 +15304,7 @@
         <v>11</v>
       </c>
       <c r="G595" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.15">
@@ -15329,7 +15329,7 @@
         <v>11</v>
       </c>
       <c r="G596" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.15">
@@ -15379,7 +15379,7 @@
         <v>11</v>
       </c>
       <c r="G598" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.15">
@@ -15477,7 +15477,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -15502,7 +15502,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -15552,7 +15552,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -15627,7 +15627,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -15652,7 +15652,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -15702,7 +15702,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -15777,7 +15777,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -15802,7 +15802,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -15852,7 +15852,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -15927,7 +15927,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -15952,7 +15952,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -16002,7 +16002,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -16077,7 +16077,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -16102,7 +16102,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -16152,7 +16152,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -16227,7 +16227,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -16252,7 +16252,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -16302,7 +16302,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -16377,7 +16377,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -16402,7 +16402,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -16452,7 +16452,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -16527,7 +16527,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -16552,7 +16552,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -16602,7 +16602,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -16677,7 +16677,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -16702,7 +16702,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -16752,7 +16752,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -16827,7 +16827,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -16852,7 +16852,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -16902,7 +16902,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -16977,7 +16977,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -17002,7 +17002,7 @@
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -17052,7 +17052,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -17127,7 +17127,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -17152,7 +17152,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -17202,7 +17202,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -17277,7 +17277,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -17302,7 +17302,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -17352,7 +17352,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -17427,7 +17427,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -17452,7 +17452,7 @@
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -17502,7 +17502,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -17577,7 +17577,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -17602,7 +17602,7 @@
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -17652,7 +17652,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -17727,7 +17727,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -17752,7 +17752,7 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -17802,7 +17802,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -17877,7 +17877,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -17902,7 +17902,7 @@
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -17952,7 +17952,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -18027,7 +18027,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -18052,7 +18052,7 @@
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -18102,7 +18102,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -18177,7 +18177,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -18202,7 +18202,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -18252,7 +18252,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -18327,7 +18327,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -18352,7 +18352,7 @@
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -18402,7 +18402,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -18477,7 +18477,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -18502,7 +18502,7 @@
         <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -18552,7 +18552,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -18627,7 +18627,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -18652,7 +18652,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -18702,7 +18702,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -18777,7 +18777,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -18802,7 +18802,7 @@
         <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -18852,7 +18852,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -18927,7 +18927,7 @@
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -18952,7 +18952,7 @@
         <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -19002,7 +19002,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -19077,7 +19077,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -19102,7 +19102,7 @@
         <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -19152,7 +19152,7 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -19227,7 +19227,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -19252,7 +19252,7 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -19302,7 +19302,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -19377,7 +19377,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -19402,7 +19402,7 @@
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -19452,7 +19452,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -19527,7 +19527,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -19552,7 +19552,7 @@
         <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -19602,7 +19602,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -19677,7 +19677,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -19702,7 +19702,7 @@
         <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -19752,7 +19752,7 @@
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -19827,7 +19827,7 @@
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -19852,7 +19852,7 @@
         <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -19902,7 +19902,7 @@
         <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -19977,7 +19977,7 @@
         <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -20002,7 +20002,7 @@
         <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -20052,7 +20052,7 @@
         <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -20127,7 +20127,7 @@
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -20152,7 +20152,7 @@
         <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -20202,7 +20202,7 @@
         <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -20277,7 +20277,7 @@
         <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -20302,7 +20302,7 @@
         <v>11</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -20352,7 +20352,7 @@
         <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -20427,7 +20427,7 @@
         <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -20452,7 +20452,7 @@
         <v>11</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -20502,7 +20502,7 @@
         <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -20577,7 +20577,7 @@
         <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -20602,7 +20602,7 @@
         <v>11</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
@@ -20652,7 +20652,7 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -20727,7 +20727,7 @@
         <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -20752,7 +20752,7 @@
         <v>11</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -20802,7 +20802,7 @@
         <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -20877,7 +20877,7 @@
         <v>11</v>
       </c>
       <c r="G217" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -20902,7 +20902,7 @@
         <v>11</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -20952,7 +20952,7 @@
         <v>11</v>
       </c>
       <c r="G220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -21027,7 +21027,7 @@
         <v>11</v>
       </c>
       <c r="G223" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -21052,7 +21052,7 @@
         <v>11</v>
       </c>
       <c r="G224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -21102,7 +21102,7 @@
         <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -21177,7 +21177,7 @@
         <v>11</v>
       </c>
       <c r="G229" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -21202,7 +21202,7 @@
         <v>11</v>
       </c>
       <c r="G230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
@@ -21252,7 +21252,7 @@
         <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -21327,7 +21327,7 @@
         <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
@@ -21352,7 +21352,7 @@
         <v>11</v>
       </c>
       <c r="G236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
@@ -21402,7 +21402,7 @@
         <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -21477,7 +21477,7 @@
         <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
@@ -21502,7 +21502,7 @@
         <v>11</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -21552,7 +21552,7 @@
         <v>11</v>
       </c>
       <c r="G244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -21627,7 +21627,7 @@
         <v>11</v>
       </c>
       <c r="G247" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -21652,7 +21652,7 @@
         <v>11</v>
       </c>
       <c r="G248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -21702,7 +21702,7 @@
         <v>11</v>
       </c>
       <c r="G250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -21777,7 +21777,7 @@
         <v>11</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -21802,7 +21802,7 @@
         <v>11</v>
       </c>
       <c r="G254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -21852,7 +21852,7 @@
         <v>11</v>
       </c>
       <c r="G256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
@@ -21927,7 +21927,7 @@
         <v>11</v>
       </c>
       <c r="G259" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -21952,7 +21952,7 @@
         <v>11</v>
       </c>
       <c r="G260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
@@ -22002,7 +22002,7 @@
         <v>11</v>
       </c>
       <c r="G262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -22077,7 +22077,7 @@
         <v>11</v>
       </c>
       <c r="G265" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -22102,7 +22102,7 @@
         <v>11</v>
       </c>
       <c r="G266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
@@ -22152,7 +22152,7 @@
         <v>11</v>
       </c>
       <c r="G268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -22227,7 +22227,7 @@
         <v>11</v>
       </c>
       <c r="G271" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -22252,7 +22252,7 @@
         <v>11</v>
       </c>
       <c r="G272" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
@@ -22302,7 +22302,7 @@
         <v>11</v>
       </c>
       <c r="G274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -22377,7 +22377,7 @@
         <v>11</v>
       </c>
       <c r="G277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -22402,7 +22402,7 @@
         <v>11</v>
       </c>
       <c r="G278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
@@ -22452,7 +22452,7 @@
         <v>11</v>
       </c>
       <c r="G280" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
@@ -22527,7 +22527,7 @@
         <v>11</v>
       </c>
       <c r="G283" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -22552,7 +22552,7 @@
         <v>11</v>
       </c>
       <c r="G284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -22602,7 +22602,7 @@
         <v>11</v>
       </c>
       <c r="G286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
@@ -22677,7 +22677,7 @@
         <v>11</v>
       </c>
       <c r="G289" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -22702,7 +22702,7 @@
         <v>11</v>
       </c>
       <c r="G290" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
@@ -22752,7 +22752,7 @@
         <v>11</v>
       </c>
       <c r="G292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -22827,7 +22827,7 @@
         <v>11</v>
       </c>
       <c r="G295" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
@@ -22852,7 +22852,7 @@
         <v>11</v>
       </c>
       <c r="G296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
@@ -22902,7 +22902,7 @@
         <v>11</v>
       </c>
       <c r="G298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -22977,7 +22977,7 @@
         <v>11</v>
       </c>
       <c r="G301" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
@@ -23002,7 +23002,7 @@
         <v>11</v>
       </c>
       <c r="G302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -23052,7 +23052,7 @@
         <v>11</v>
       </c>
       <c r="G304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -23127,7 +23127,7 @@
         <v>11</v>
       </c>
       <c r="G307" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -23152,7 +23152,7 @@
         <v>11</v>
       </c>
       <c r="G308" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -23202,7 +23202,7 @@
         <v>11</v>
       </c>
       <c r="G310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -23277,7 +23277,7 @@
         <v>11</v>
       </c>
       <c r="G313" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -23302,7 +23302,7 @@
         <v>11</v>
       </c>
       <c r="G314" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -23352,7 +23352,7 @@
         <v>11</v>
       </c>
       <c r="G316" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -23427,7 +23427,7 @@
         <v>11</v>
       </c>
       <c r="G319" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -23452,7 +23452,7 @@
         <v>11</v>
       </c>
       <c r="G320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
@@ -23502,7 +23502,7 @@
         <v>11</v>
       </c>
       <c r="G322" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -23577,7 +23577,7 @@
         <v>11</v>
       </c>
       <c r="G325" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -23602,7 +23602,7 @@
         <v>11</v>
       </c>
       <c r="G326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
@@ -23652,7 +23652,7 @@
         <v>11</v>
       </c>
       <c r="G328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -23727,7 +23727,7 @@
         <v>11</v>
       </c>
       <c r="G331" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
@@ -23752,7 +23752,7 @@
         <v>11</v>
       </c>
       <c r="G332" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
@@ -23802,7 +23802,7 @@
         <v>11</v>
       </c>
       <c r="G334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -23877,7 +23877,7 @@
         <v>11</v>
       </c>
       <c r="G337" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -23902,7 +23902,7 @@
         <v>11</v>
       </c>
       <c r="G338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
@@ -23952,7 +23952,7 @@
         <v>11</v>
       </c>
       <c r="G340" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
@@ -24027,7 +24027,7 @@
         <v>11</v>
       </c>
       <c r="G343" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -24052,7 +24052,7 @@
         <v>11</v>
       </c>
       <c r="G344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
@@ -24102,7 +24102,7 @@
         <v>11</v>
       </c>
       <c r="G346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
@@ -24177,7 +24177,7 @@
         <v>11</v>
       </c>
       <c r="G349" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -24202,7 +24202,7 @@
         <v>11</v>
       </c>
       <c r="G350" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.15">
@@ -24252,7 +24252,7 @@
         <v>11</v>
       </c>
       <c r="G352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -24327,7 +24327,7 @@
         <v>11</v>
       </c>
       <c r="G355" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
@@ -24352,7 +24352,7 @@
         <v>11</v>
       </c>
       <c r="G356" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.15">
@@ -24402,7 +24402,7 @@
         <v>11</v>
       </c>
       <c r="G358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -24477,7 +24477,7 @@
         <v>11</v>
       </c>
       <c r="G361" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
@@ -24502,7 +24502,7 @@
         <v>11</v>
       </c>
       <c r="G362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
@@ -24552,7 +24552,7 @@
         <v>11</v>
       </c>
       <c r="G364" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -24627,7 +24627,7 @@
         <v>11</v>
       </c>
       <c r="G367" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -24652,7 +24652,7 @@
         <v>11</v>
       </c>
       <c r="G368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
@@ -24702,7 +24702,7 @@
         <v>11</v>
       </c>
       <c r="G370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -24777,7 +24777,7 @@
         <v>11</v>
       </c>
       <c r="G373" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -24802,7 +24802,7 @@
         <v>11</v>
       </c>
       <c r="G374" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
@@ -24852,7 +24852,7 @@
         <v>11</v>
       </c>
       <c r="G376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
@@ -24927,7 +24927,7 @@
         <v>11</v>
       </c>
       <c r="G379" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -24952,7 +24952,7 @@
         <v>11</v>
       </c>
       <c r="G380" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
@@ -25002,7 +25002,7 @@
         <v>11</v>
       </c>
       <c r="G382" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -25077,7 +25077,7 @@
         <v>11</v>
       </c>
       <c r="G385" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -25102,7 +25102,7 @@
         <v>11</v>
       </c>
       <c r="G386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
@@ -25152,7 +25152,7 @@
         <v>11</v>
       </c>
       <c r="G388" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -25227,7 +25227,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -25252,7 +25252,7 @@
         <v>11</v>
       </c>
       <c r="G392" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
@@ -25302,7 +25302,7 @@
         <v>11</v>
       </c>
       <c r="G394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -25377,7 +25377,7 @@
         <v>11</v>
       </c>
       <c r="G397" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -25402,7 +25402,7 @@
         <v>11</v>
       </c>
       <c r="G398" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -25452,7 +25452,7 @@
         <v>11</v>
       </c>
       <c r="G400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -25527,7 +25527,7 @@
         <v>11</v>
       </c>
       <c r="G403" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -25552,7 +25552,7 @@
         <v>11</v>
       </c>
       <c r="G404" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
@@ -25602,7 +25602,7 @@
         <v>11</v>
       </c>
       <c r="G406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
@@ -25677,7 +25677,7 @@
         <v>11</v>
       </c>
       <c r="G409" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -25702,7 +25702,7 @@
         <v>11</v>
       </c>
       <c r="G410" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
@@ -25752,7 +25752,7 @@
         <v>11</v>
       </c>
       <c r="G412" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -25827,7 +25827,7 @@
         <v>11</v>
       </c>
       <c r="G415" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -25852,7 +25852,7 @@
         <v>11</v>
       </c>
       <c r="G416" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.15">
@@ -25902,7 +25902,7 @@
         <v>11</v>
       </c>
       <c r="G418" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -25977,7 +25977,7 @@
         <v>11</v>
       </c>
       <c r="G421" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -26002,7 +26002,7 @@
         <v>11</v>
       </c>
       <c r="G422" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -26052,7 +26052,7 @@
         <v>11</v>
       </c>
       <c r="G424" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -26127,7 +26127,7 @@
         <v>11</v>
       </c>
       <c r="G427" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -26152,7 +26152,7 @@
         <v>11</v>
       </c>
       <c r="G428" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -26202,7 +26202,7 @@
         <v>11</v>
       </c>
       <c r="G430" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -26277,7 +26277,7 @@
         <v>11</v>
       </c>
       <c r="G433" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -26302,7 +26302,7 @@
         <v>11</v>
       </c>
       <c r="G434" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -26352,7 +26352,7 @@
         <v>11</v>
       </c>
       <c r="G436" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -26427,7 +26427,7 @@
         <v>11</v>
       </c>
       <c r="G439" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -26452,7 +26452,7 @@
         <v>11</v>
       </c>
       <c r="G440" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.15">
@@ -26502,7 +26502,7 @@
         <v>11</v>
       </c>
       <c r="G442" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -26577,7 +26577,7 @@
         <v>11</v>
       </c>
       <c r="G445" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -26602,7 +26602,7 @@
         <v>11</v>
       </c>
       <c r="G446" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.15">
@@ -26652,7 +26652,7 @@
         <v>11</v>
       </c>
       <c r="G448" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -26727,7 +26727,7 @@
         <v>11</v>
       </c>
       <c r="G451" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
@@ -26752,7 +26752,7 @@
         <v>11</v>
       </c>
       <c r="G452" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -26802,7 +26802,7 @@
         <v>11</v>
       </c>
       <c r="G454" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -26877,7 +26877,7 @@
         <v>11</v>
       </c>
       <c r="G457" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -26902,7 +26902,7 @@
         <v>11</v>
       </c>
       <c r="G458" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -26952,7 +26952,7 @@
         <v>11</v>
       </c>
       <c r="G460" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.15">
@@ -27027,7 +27027,7 @@
         <v>11</v>
       </c>
       <c r="G463" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -27052,7 +27052,7 @@
         <v>11</v>
       </c>
       <c r="G464" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -27102,7 +27102,7 @@
         <v>11</v>
       </c>
       <c r="G466" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -27177,7 +27177,7 @@
         <v>11</v>
       </c>
       <c r="G469" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -27202,7 +27202,7 @@
         <v>11</v>
       </c>
       <c r="G470" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.15">
@@ -27252,7 +27252,7 @@
         <v>11</v>
       </c>
       <c r="G472" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -27327,7 +27327,7 @@
         <v>11</v>
       </c>
       <c r="G475" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.15">
@@ -27352,7 +27352,7 @@
         <v>11</v>
       </c>
       <c r="G476" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.15">
@@ -27402,7 +27402,7 @@
         <v>11</v>
       </c>
       <c r="G478" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -27477,7 +27477,7 @@
         <v>11</v>
       </c>
       <c r="G481" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.15">
@@ -27502,7 +27502,7 @@
         <v>11</v>
       </c>
       <c r="G482" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.15">
@@ -27552,7 +27552,7 @@
         <v>11</v>
       </c>
       <c r="G484" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -27627,7 +27627,7 @@
         <v>11</v>
       </c>
       <c r="G487" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -27652,7 +27652,7 @@
         <v>11</v>
       </c>
       <c r="G488" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -27702,7 +27702,7 @@
         <v>11</v>
       </c>
       <c r="G490" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.15">
@@ -27777,7 +27777,7 @@
         <v>11</v>
       </c>
       <c r="G493" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -27802,7 +27802,7 @@
         <v>11</v>
       </c>
       <c r="G494" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.15">
@@ -27852,7 +27852,7 @@
         <v>11</v>
       </c>
       <c r="G496" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.15">
@@ -27927,7 +27927,7 @@
         <v>11</v>
       </c>
       <c r="G499" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -27952,7 +27952,7 @@
         <v>11</v>
       </c>
       <c r="G500" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.15">
@@ -28002,7 +28002,7 @@
         <v>11</v>
       </c>
       <c r="G502" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
@@ -28077,7 +28077,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -28102,7 +28102,7 @@
         <v>11</v>
       </c>
       <c r="G506" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.15">
@@ -28152,7 +28152,7 @@
         <v>11</v>
       </c>
       <c r="G508" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.15">
@@ -28227,7 +28227,7 @@
         <v>11</v>
       </c>
       <c r="G511" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.15">
@@ -28252,7 +28252,7 @@
         <v>11</v>
       </c>
       <c r="G512" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.15">
@@ -28302,7 +28302,7 @@
         <v>11</v>
       </c>
       <c r="G514" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -28377,7 +28377,7 @@
         <v>11</v>
       </c>
       <c r="G517" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -28402,7 +28402,7 @@
         <v>11</v>
       </c>
       <c r="G518" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.15">
@@ -28452,7 +28452,7 @@
         <v>11</v>
       </c>
       <c r="G520" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.15">
@@ -28527,7 +28527,7 @@
         <v>11</v>
       </c>
       <c r="G523" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.15">
@@ -28552,7 +28552,7 @@
         <v>11</v>
       </c>
       <c r="G524" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.15">
@@ -28602,7 +28602,7 @@
         <v>11</v>
       </c>
       <c r="G526" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.15">
@@ -28677,7 +28677,7 @@
         <v>11</v>
       </c>
       <c r="G529" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.15">
@@ -28702,7 +28702,7 @@
         <v>11</v>
       </c>
       <c r="G530" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.15">
@@ -28752,7 +28752,7 @@
         <v>11</v>
       </c>
       <c r="G532" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
@@ -28827,7 +28827,7 @@
         <v>11</v>
       </c>
       <c r="G535" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.15">
@@ -28852,7 +28852,7 @@
         <v>11</v>
       </c>
       <c r="G536" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.15">
@@ -28902,7 +28902,7 @@
         <v>11</v>
       </c>
       <c r="G538" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.15">
@@ -28977,7 +28977,7 @@
         <v>11</v>
       </c>
       <c r="G541" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
@@ -29002,7 +29002,7 @@
         <v>11</v>
       </c>
       <c r="G542" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.15">
@@ -29052,7 +29052,7 @@
         <v>11</v>
       </c>
       <c r="G544" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.15">
@@ -29127,7 +29127,7 @@
         <v>11</v>
       </c>
       <c r="G547" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.15">
@@ -29152,7 +29152,7 @@
         <v>11</v>
       </c>
       <c r="G548" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.15">
@@ -29202,7 +29202,7 @@
         <v>11</v>
       </c>
       <c r="G550" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
@@ -29277,7 +29277,7 @@
         <v>11</v>
       </c>
       <c r="G553" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.15">
@@ -29302,7 +29302,7 @@
         <v>11</v>
       </c>
       <c r="G554" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.15">
@@ -29352,7 +29352,7 @@
         <v>11</v>
       </c>
       <c r="G556" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.15">
@@ -29427,7 +29427,7 @@
         <v>11</v>
       </c>
       <c r="G559" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.15">
@@ -29452,7 +29452,7 @@
         <v>11</v>
       </c>
       <c r="G560" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.15">
@@ -29502,7 +29502,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.15">
@@ -29577,7 +29577,7 @@
         <v>11</v>
       </c>
       <c r="G565" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.15">
@@ -29602,7 +29602,7 @@
         <v>11</v>
       </c>
       <c r="G566" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.15">
@@ -29652,7 +29652,7 @@
         <v>11</v>
       </c>
       <c r="G568" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.15">
@@ -29727,7 +29727,7 @@
         <v>11</v>
       </c>
       <c r="G571" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.15">
@@ -29752,7 +29752,7 @@
         <v>11</v>
       </c>
       <c r="G572" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.15">
@@ -29802,7 +29802,7 @@
         <v>11</v>
       </c>
       <c r="G574" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.15">
@@ -29877,7 +29877,7 @@
         <v>11</v>
       </c>
       <c r="G577" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.15">
@@ -29902,7 +29902,7 @@
         <v>11</v>
       </c>
       <c r="G578" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.15">
@@ -29952,7 +29952,7 @@
         <v>11</v>
       </c>
       <c r="G580" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.15">
@@ -30027,7 +30027,7 @@
         <v>11</v>
       </c>
       <c r="G583" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.15">
@@ -30052,7 +30052,7 @@
         <v>11</v>
       </c>
       <c r="G584" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.15">
@@ -30102,7 +30102,7 @@
         <v>11</v>
       </c>
       <c r="G586" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.15">
@@ -30177,7 +30177,7 @@
         <v>11</v>
       </c>
       <c r="G589" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.15">
@@ -30202,7 +30202,7 @@
         <v>11</v>
       </c>
       <c r="G590" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.15">
@@ -30252,7 +30252,7 @@
         <v>11</v>
       </c>
       <c r="G592" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.15">
@@ -30327,7 +30327,7 @@
         <v>11</v>
       </c>
       <c r="G595" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.15">
@@ -30352,7 +30352,7 @@
         <v>11</v>
       </c>
       <c r="G596" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.15">
@@ -30402,7 +30402,7 @@
         <v>11</v>
       </c>
       <c r="G598" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.15">
@@ -30499,7 +30499,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -30524,7 +30524,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -30574,7 +30574,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -30649,7 +30649,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -30674,7 +30674,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -30724,7 +30724,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -30799,7 +30799,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -30824,7 +30824,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -30874,7 +30874,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -30949,7 +30949,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -30974,7 +30974,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -31024,7 +31024,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -31099,7 +31099,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -31124,7 +31124,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -31174,7 +31174,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -31249,7 +31249,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -31274,7 +31274,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -31324,7 +31324,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -31399,7 +31399,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -31424,7 +31424,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -31474,7 +31474,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -31549,7 +31549,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -31574,7 +31574,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -31624,7 +31624,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -31699,7 +31699,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -31724,7 +31724,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -31774,7 +31774,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -31849,7 +31849,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -31874,7 +31874,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -31924,7 +31924,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -31999,7 +31999,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -32024,7 +32024,7 @@
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -32074,7 +32074,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -32149,7 +32149,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -32174,7 +32174,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -32224,7 +32224,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -32299,7 +32299,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -32324,7 +32324,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -32374,7 +32374,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -32449,7 +32449,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -32474,7 +32474,7 @@
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -32524,7 +32524,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -32599,7 +32599,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -32624,7 +32624,7 @@
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -32674,7 +32674,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -32749,7 +32749,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -32774,7 +32774,7 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -32824,7 +32824,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -32899,7 +32899,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -32924,7 +32924,7 @@
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -32974,7 +32974,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -33049,7 +33049,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -33074,7 +33074,7 @@
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -33124,7 +33124,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -33199,7 +33199,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -33224,7 +33224,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -33274,7 +33274,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -33349,7 +33349,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -33374,7 +33374,7 @@
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -33424,7 +33424,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -33499,7 +33499,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -33524,7 +33524,7 @@
         <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -33574,7 +33574,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -33649,7 +33649,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -33674,7 +33674,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -33724,7 +33724,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -33799,7 +33799,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -33824,7 +33824,7 @@
         <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -33874,7 +33874,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -33949,7 +33949,7 @@
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -33974,7 +33974,7 @@
         <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -34024,7 +34024,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -34099,7 +34099,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -34124,7 +34124,7 @@
         <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -34174,7 +34174,7 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -34249,7 +34249,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -34274,7 +34274,7 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -34324,7 +34324,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -34399,7 +34399,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -34424,7 +34424,7 @@
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -34474,7 +34474,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -34549,7 +34549,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -34574,7 +34574,7 @@
         <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -34624,7 +34624,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -34699,7 +34699,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -34724,7 +34724,7 @@
         <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -34774,7 +34774,7 @@
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -34849,7 +34849,7 @@
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -34874,7 +34874,7 @@
         <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -34924,7 +34924,7 @@
         <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -34999,7 +34999,7 @@
         <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -35024,7 +35024,7 @@
         <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -35074,7 +35074,7 @@
         <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -35149,7 +35149,7 @@
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -35174,7 +35174,7 @@
         <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -35224,7 +35224,7 @@
         <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -35299,7 +35299,7 @@
         <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -35324,7 +35324,7 @@
         <v>11</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -35374,7 +35374,7 @@
         <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -35449,7 +35449,7 @@
         <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -35474,7 +35474,7 @@
         <v>11</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -35524,7 +35524,7 @@
         <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -35599,7 +35599,7 @@
         <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -35624,7 +35624,7 @@
         <v>11</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
@@ -35674,7 +35674,7 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -35749,7 +35749,7 @@
         <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -35774,7 +35774,7 @@
         <v>11</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -35824,7 +35824,7 @@
         <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -35899,7 +35899,7 @@
         <v>11</v>
       </c>
       <c r="G217" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -35924,7 +35924,7 @@
         <v>11</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -35974,7 +35974,7 @@
         <v>11</v>
       </c>
       <c r="G220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -36049,7 +36049,7 @@
         <v>11</v>
       </c>
       <c r="G223" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -36074,7 +36074,7 @@
         <v>11</v>
       </c>
       <c r="G224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -36124,7 +36124,7 @@
         <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -36199,7 +36199,7 @@
         <v>11</v>
       </c>
       <c r="G229" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -36224,7 +36224,7 @@
         <v>11</v>
       </c>
       <c r="G230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
@@ -36274,7 +36274,7 @@
         <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -36349,7 +36349,7 @@
         <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
@@ -36374,7 +36374,7 @@
         <v>11</v>
       </c>
       <c r="G236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
@@ -36424,7 +36424,7 @@
         <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -36499,7 +36499,7 @@
         <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
@@ -36524,7 +36524,7 @@
         <v>11</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -36574,7 +36574,7 @@
         <v>11</v>
       </c>
       <c r="G244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -36649,7 +36649,7 @@
         <v>11</v>
       </c>
       <c r="G247" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -36674,7 +36674,7 @@
         <v>11</v>
       </c>
       <c r="G248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -36724,7 +36724,7 @@
         <v>11</v>
       </c>
       <c r="G250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -36799,7 +36799,7 @@
         <v>11</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -36824,7 +36824,7 @@
         <v>11</v>
       </c>
       <c r="G254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -36874,7 +36874,7 @@
         <v>11</v>
       </c>
       <c r="G256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
@@ -36949,7 +36949,7 @@
         <v>11</v>
       </c>
       <c r="G259" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -36974,7 +36974,7 @@
         <v>11</v>
       </c>
       <c r="G260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
@@ -37024,7 +37024,7 @@
         <v>11</v>
       </c>
       <c r="G262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -37099,7 +37099,7 @@
         <v>11</v>
       </c>
       <c r="G265" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -37124,7 +37124,7 @@
         <v>11</v>
       </c>
       <c r="G266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
@@ -37174,7 +37174,7 @@
         <v>11</v>
       </c>
       <c r="G268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -37249,7 +37249,7 @@
         <v>11</v>
       </c>
       <c r="G271" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -37274,7 +37274,7 @@
         <v>11</v>
       </c>
       <c r="G272" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
@@ -37324,7 +37324,7 @@
         <v>11</v>
       </c>
       <c r="G274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -37399,7 +37399,7 @@
         <v>11</v>
       </c>
       <c r="G277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -37424,7 +37424,7 @@
         <v>11</v>
       </c>
       <c r="G278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
@@ -37474,7 +37474,7 @@
         <v>11</v>
       </c>
       <c r="G280" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
@@ -37549,7 +37549,7 @@
         <v>11</v>
       </c>
       <c r="G283" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -37574,7 +37574,7 @@
         <v>11</v>
       </c>
       <c r="G284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -37624,7 +37624,7 @@
         <v>11</v>
       </c>
       <c r="G286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
@@ -37699,7 +37699,7 @@
         <v>11</v>
       </c>
       <c r="G289" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -37724,7 +37724,7 @@
         <v>11</v>
       </c>
       <c r="G290" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
@@ -37774,7 +37774,7 @@
         <v>11</v>
       </c>
       <c r="G292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -37849,7 +37849,7 @@
         <v>11</v>
       </c>
       <c r="G295" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
@@ -37874,7 +37874,7 @@
         <v>11</v>
       </c>
       <c r="G296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
@@ -37924,7 +37924,7 @@
         <v>11</v>
       </c>
       <c r="G298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -37999,7 +37999,7 @@
         <v>11</v>
       </c>
       <c r="G301" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
@@ -38024,7 +38024,7 @@
         <v>11</v>
       </c>
       <c r="G302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -38074,7 +38074,7 @@
         <v>11</v>
       </c>
       <c r="G304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -38149,7 +38149,7 @@
         <v>11</v>
       </c>
       <c r="G307" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -38174,7 +38174,7 @@
         <v>11</v>
       </c>
       <c r="G308" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -38224,7 +38224,7 @@
         <v>11</v>
       </c>
       <c r="G310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -38299,7 +38299,7 @@
         <v>11</v>
       </c>
       <c r="G313" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -38324,7 +38324,7 @@
         <v>11</v>
       </c>
       <c r="G314" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -38374,7 +38374,7 @@
         <v>11</v>
       </c>
       <c r="G316" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -38449,7 +38449,7 @@
         <v>11</v>
       </c>
       <c r="G319" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -38474,7 +38474,7 @@
         <v>11</v>
       </c>
       <c r="G320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
@@ -38524,7 +38524,7 @@
         <v>11</v>
       </c>
       <c r="G322" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -38599,7 +38599,7 @@
         <v>11</v>
       </c>
       <c r="G325" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -38624,7 +38624,7 @@
         <v>11</v>
       </c>
       <c r="G326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
@@ -38674,7 +38674,7 @@
         <v>11</v>
       </c>
       <c r="G328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -38749,7 +38749,7 @@
         <v>11</v>
       </c>
       <c r="G331" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
@@ -38774,7 +38774,7 @@
         <v>11</v>
       </c>
       <c r="G332" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
@@ -38824,7 +38824,7 @@
         <v>11</v>
       </c>
       <c r="G334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -38899,7 +38899,7 @@
         <v>11</v>
       </c>
       <c r="G337" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -38924,7 +38924,7 @@
         <v>11</v>
       </c>
       <c r="G338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
@@ -38974,7 +38974,7 @@
         <v>11</v>
       </c>
       <c r="G340" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
@@ -39049,7 +39049,7 @@
         <v>11</v>
       </c>
       <c r="G343" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -39074,7 +39074,7 @@
         <v>11</v>
       </c>
       <c r="G344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
@@ -39124,7 +39124,7 @@
         <v>11</v>
       </c>
       <c r="G346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
@@ -39199,7 +39199,7 @@
         <v>11</v>
       </c>
       <c r="G349" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -39224,7 +39224,7 @@
         <v>11</v>
       </c>
       <c r="G350" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.15">
@@ -39274,7 +39274,7 @@
         <v>11</v>
       </c>
       <c r="G352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -39349,7 +39349,7 @@
         <v>11</v>
       </c>
       <c r="G355" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
@@ -39374,7 +39374,7 @@
         <v>11</v>
       </c>
       <c r="G356" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.15">
@@ -39424,7 +39424,7 @@
         <v>11</v>
       </c>
       <c r="G358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -39499,7 +39499,7 @@
         <v>11</v>
       </c>
       <c r="G361" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
@@ -39524,7 +39524,7 @@
         <v>11</v>
       </c>
       <c r="G362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
@@ -39574,7 +39574,7 @@
         <v>11</v>
       </c>
       <c r="G364" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -39649,7 +39649,7 @@
         <v>11</v>
       </c>
       <c r="G367" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -39674,7 +39674,7 @@
         <v>11</v>
       </c>
       <c r="G368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
@@ -39724,7 +39724,7 @@
         <v>11</v>
       </c>
       <c r="G370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -39799,7 +39799,7 @@
         <v>11</v>
       </c>
       <c r="G373" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -39824,7 +39824,7 @@
         <v>11</v>
       </c>
       <c r="G374" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
@@ -39874,7 +39874,7 @@
         <v>11</v>
       </c>
       <c r="G376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
@@ -39949,7 +39949,7 @@
         <v>11</v>
       </c>
       <c r="G379" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -39974,7 +39974,7 @@
         <v>11</v>
       </c>
       <c r="G380" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
@@ -40024,7 +40024,7 @@
         <v>11</v>
       </c>
       <c r="G382" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -40099,7 +40099,7 @@
         <v>11</v>
       </c>
       <c r="G385" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -40124,7 +40124,7 @@
         <v>11</v>
       </c>
       <c r="G386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
@@ -40174,7 +40174,7 @@
         <v>11</v>
       </c>
       <c r="G388" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -40249,7 +40249,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -40274,7 +40274,7 @@
         <v>11</v>
       </c>
       <c r="G392" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
@@ -40324,7 +40324,7 @@
         <v>11</v>
       </c>
       <c r="G394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -40399,7 +40399,7 @@
         <v>11</v>
       </c>
       <c r="G397" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -40424,7 +40424,7 @@
         <v>11</v>
       </c>
       <c r="G398" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -40474,7 +40474,7 @@
         <v>11</v>
       </c>
       <c r="G400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -40549,7 +40549,7 @@
         <v>11</v>
       </c>
       <c r="G403" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -40574,7 +40574,7 @@
         <v>11</v>
       </c>
       <c r="G404" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
@@ -40624,7 +40624,7 @@
         <v>11</v>
       </c>
       <c r="G406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
@@ -40699,7 +40699,7 @@
         <v>11</v>
       </c>
       <c r="G409" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -40724,7 +40724,7 @@
         <v>11</v>
       </c>
       <c r="G410" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
@@ -40774,7 +40774,7 @@
         <v>11</v>
       </c>
       <c r="G412" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -40849,7 +40849,7 @@
         <v>11</v>
       </c>
       <c r="G415" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -40874,7 +40874,7 @@
         <v>11</v>
       </c>
       <c r="G416" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.15">
@@ -40924,7 +40924,7 @@
         <v>11</v>
       </c>
       <c r="G418" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -40999,7 +40999,7 @@
         <v>11</v>
       </c>
       <c r="G421" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -41024,7 +41024,7 @@
         <v>11</v>
       </c>
       <c r="G422" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -41074,7 +41074,7 @@
         <v>11</v>
       </c>
       <c r="G424" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -41149,7 +41149,7 @@
         <v>11</v>
       </c>
       <c r="G427" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -41174,7 +41174,7 @@
         <v>11</v>
       </c>
       <c r="G428" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -41224,7 +41224,7 @@
         <v>11</v>
       </c>
       <c r="G430" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -41299,7 +41299,7 @@
         <v>11</v>
       </c>
       <c r="G433" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -41324,7 +41324,7 @@
         <v>11</v>
       </c>
       <c r="G434" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -41374,7 +41374,7 @@
         <v>11</v>
       </c>
       <c r="G436" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -41449,7 +41449,7 @@
         <v>11</v>
       </c>
       <c r="G439" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -41474,7 +41474,7 @@
         <v>11</v>
       </c>
       <c r="G440" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.15">
@@ -41524,7 +41524,7 @@
         <v>11</v>
       </c>
       <c r="G442" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -41599,7 +41599,7 @@
         <v>11</v>
       </c>
       <c r="G445" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -41624,7 +41624,7 @@
         <v>11</v>
       </c>
       <c r="G446" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.15">
@@ -41674,7 +41674,7 @@
         <v>11</v>
       </c>
       <c r="G448" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -41749,7 +41749,7 @@
         <v>11</v>
       </c>
       <c r="G451" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
@@ -41774,7 +41774,7 @@
         <v>11</v>
       </c>
       <c r="G452" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -41824,7 +41824,7 @@
         <v>11</v>
       </c>
       <c r="G454" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -41899,7 +41899,7 @@
         <v>11</v>
       </c>
       <c r="G457" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -41924,7 +41924,7 @@
         <v>11</v>
       </c>
       <c r="G458" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -41974,7 +41974,7 @@
         <v>11</v>
       </c>
       <c r="G460" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.15">
@@ -42049,7 +42049,7 @@
         <v>11</v>
       </c>
       <c r="G463" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -42074,7 +42074,7 @@
         <v>11</v>
       </c>
       <c r="G464" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -42124,7 +42124,7 @@
         <v>11</v>
       </c>
       <c r="G466" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -42199,7 +42199,7 @@
         <v>11</v>
       </c>
       <c r="G469" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -42224,7 +42224,7 @@
         <v>11</v>
       </c>
       <c r="G470" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.15">
@@ -42274,7 +42274,7 @@
         <v>11</v>
       </c>
       <c r="G472" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -42349,7 +42349,7 @@
         <v>11</v>
       </c>
       <c r="G475" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.15">
@@ -42374,7 +42374,7 @@
         <v>11</v>
       </c>
       <c r="G476" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.15">
@@ -42424,7 +42424,7 @@
         <v>11</v>
       </c>
       <c r="G478" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -42499,7 +42499,7 @@
         <v>11</v>
       </c>
       <c r="G481" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.15">
@@ -42524,7 +42524,7 @@
         <v>11</v>
       </c>
       <c r="G482" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.15">
@@ -42574,7 +42574,7 @@
         <v>11</v>
       </c>
       <c r="G484" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -42649,7 +42649,7 @@
         <v>11</v>
       </c>
       <c r="G487" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -42674,7 +42674,7 @@
         <v>11</v>
       </c>
       <c r="G488" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -42724,7 +42724,7 @@
         <v>11</v>
       </c>
       <c r="G490" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.15">
@@ -42799,7 +42799,7 @@
         <v>11</v>
       </c>
       <c r="G493" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -42824,7 +42824,7 @@
         <v>11</v>
       </c>
       <c r="G494" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.15">
@@ -42874,7 +42874,7 @@
         <v>11</v>
       </c>
       <c r="G496" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.15">
@@ -42949,7 +42949,7 @@
         <v>11</v>
       </c>
       <c r="G499" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -42974,7 +42974,7 @@
         <v>11</v>
       </c>
       <c r="G500" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.15">
@@ -43024,7 +43024,7 @@
         <v>11</v>
       </c>
       <c r="G502" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
@@ -43099,7 +43099,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -43124,7 +43124,7 @@
         <v>11</v>
       </c>
       <c r="G506" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.15">
@@ -43174,7 +43174,7 @@
         <v>11</v>
       </c>
       <c r="G508" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.15">
@@ -43249,7 +43249,7 @@
         <v>11</v>
       </c>
       <c r="G511" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.15">
@@ -43274,7 +43274,7 @@
         <v>11</v>
       </c>
       <c r="G512" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.15">
@@ -43324,7 +43324,7 @@
         <v>11</v>
       </c>
       <c r="G514" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -43399,7 +43399,7 @@
         <v>11</v>
       </c>
       <c r="G517" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -43424,7 +43424,7 @@
         <v>11</v>
       </c>
       <c r="G518" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.15">
@@ -43474,7 +43474,7 @@
         <v>11</v>
       </c>
       <c r="G520" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.15">
@@ -43549,7 +43549,7 @@
         <v>11</v>
       </c>
       <c r="G523" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.15">
@@ -43574,7 +43574,7 @@
         <v>11</v>
       </c>
       <c r="G524" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.15">
@@ -43624,7 +43624,7 @@
         <v>11</v>
       </c>
       <c r="G526" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.15">
@@ -43699,7 +43699,7 @@
         <v>11</v>
       </c>
       <c r="G529" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.15">
@@ -43724,7 +43724,7 @@
         <v>11</v>
       </c>
       <c r="G530" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.15">
@@ -43774,7 +43774,7 @@
         <v>11</v>
       </c>
       <c r="G532" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
@@ -43849,7 +43849,7 @@
         <v>11</v>
       </c>
       <c r="G535" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.15">
@@ -43874,7 +43874,7 @@
         <v>11</v>
       </c>
       <c r="G536" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.15">
@@ -43924,7 +43924,7 @@
         <v>11</v>
       </c>
       <c r="G538" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.15">
@@ -43999,7 +43999,7 @@
         <v>11</v>
       </c>
       <c r="G541" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
@@ -44024,7 +44024,7 @@
         <v>11</v>
       </c>
       <c r="G542" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.15">
@@ -44074,7 +44074,7 @@
         <v>11</v>
       </c>
       <c r="G544" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.15">
@@ -44149,7 +44149,7 @@
         <v>11</v>
       </c>
       <c r="G547" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.15">
@@ -44174,7 +44174,7 @@
         <v>11</v>
       </c>
       <c r="G548" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.15">
@@ -44224,7 +44224,7 @@
         <v>11</v>
       </c>
       <c r="G550" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
@@ -44299,7 +44299,7 @@
         <v>11</v>
       </c>
       <c r="G553" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.15">
@@ -44324,7 +44324,7 @@
         <v>11</v>
       </c>
       <c r="G554" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.15">
@@ -44374,7 +44374,7 @@
         <v>11</v>
       </c>
       <c r="G556" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.15">
@@ -44449,7 +44449,7 @@
         <v>11</v>
       </c>
       <c r="G559" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.15">
@@ -44474,7 +44474,7 @@
         <v>11</v>
       </c>
       <c r="G560" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.15">
@@ -44524,7 +44524,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.15">
@@ -44599,7 +44599,7 @@
         <v>11</v>
       </c>
       <c r="G565" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.15">
@@ -44624,7 +44624,7 @@
         <v>11</v>
       </c>
       <c r="G566" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.15">
@@ -44674,7 +44674,7 @@
         <v>11</v>
       </c>
       <c r="G568" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.15">
@@ -44749,7 +44749,7 @@
         <v>11</v>
       </c>
       <c r="G571" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.15">
@@ -44774,7 +44774,7 @@
         <v>11</v>
       </c>
       <c r="G572" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.15">
@@ -44824,7 +44824,7 @@
         <v>11</v>
       </c>
       <c r="G574" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.15">
@@ -44899,7 +44899,7 @@
         <v>11</v>
       </c>
       <c r="G577" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.15">
@@ -44924,7 +44924,7 @@
         <v>11</v>
       </c>
       <c r="G578" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.15">
@@ -44974,7 +44974,7 @@
         <v>11</v>
       </c>
       <c r="G580" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.15">
@@ -45049,7 +45049,7 @@
         <v>11</v>
       </c>
       <c r="G583" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.15">
@@ -45074,7 +45074,7 @@
         <v>11</v>
       </c>
       <c r="G584" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.15">
@@ -45124,7 +45124,7 @@
         <v>11</v>
       </c>
       <c r="G586" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.15">
@@ -45199,7 +45199,7 @@
         <v>11</v>
       </c>
       <c r="G589" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.15">
@@ -45224,7 +45224,7 @@
         <v>11</v>
       </c>
       <c r="G590" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.15">
@@ -45274,7 +45274,7 @@
         <v>11</v>
       </c>
       <c r="G592" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.15">
@@ -45349,7 +45349,7 @@
         <v>11</v>
       </c>
       <c r="G595" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.15">
@@ -45374,7 +45374,7 @@
         <v>11</v>
       </c>
       <c r="G596" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.15">
@@ -45424,7 +45424,7 @@
         <v>11</v>
       </c>
       <c r="G598" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.15">

--- a/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
+++ b/直播源汇总文档/其他文档/itv代理线路填充模版.xlsx
@@ -64,10 +64,10 @@
     <t>/mgtv/641886683.m3u8</t>
   </si>
   <si>
-    <t>/bst/xsjhd@4000000</t>
+    <t>/nptv/dongfang.m3u8</t>
   </si>
   <si>
-    <t>/nptv/dongfang.m3u8</t>
+    <t>/bst/xsjhd@4000000.m3u8</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -754,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -829,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1054,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1204,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1279,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1504,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1579,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1654,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1729,7 +1729,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -1804,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -1879,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -1954,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -2029,7 +2029,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -2104,7 +2104,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -2179,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -2254,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -2329,7 +2329,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -2404,7 +2404,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -2479,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -2554,7 +2554,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -2629,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -2704,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -2779,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -2854,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -2929,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -3004,7 +3004,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -3079,7 +3079,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -3154,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -3229,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -3304,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -3379,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -3454,7 +3454,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -3529,7 +3529,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -3604,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -3679,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -3754,7 +3754,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -3829,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -3904,7 +3904,7 @@
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -3979,7 +3979,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -4054,7 +4054,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -4129,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -4204,7 +4204,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -4279,7 +4279,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -4354,7 +4354,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -4429,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -4504,7 +4504,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -4579,7 +4579,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -4654,7 +4654,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -4729,7 +4729,7 @@
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -4804,7 +4804,7 @@
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -4879,7 +4879,7 @@
         <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -4954,7 +4954,7 @@
         <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -5029,7 +5029,7 @@
         <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -5104,7 +5104,7 @@
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -5179,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -5329,7 +5329,7 @@
         <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -5404,7 +5404,7 @@
         <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -5479,7 +5479,7 @@
         <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -5554,7 +5554,7 @@
         <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -5629,7 +5629,7 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -5704,7 +5704,7 @@
         <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -5779,7 +5779,7 @@
         <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -5854,7 +5854,7 @@
         <v>11</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -5929,7 +5929,7 @@
         <v>11</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -6004,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="G223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -6079,7 +6079,7 @@
         <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -6154,7 +6154,7 @@
         <v>11</v>
       </c>
       <c r="G229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -6229,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -6304,7 +6304,7 @@
         <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
@@ -6379,7 +6379,7 @@
         <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -6454,7 +6454,7 @@
         <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
@@ -6529,7 +6529,7 @@
         <v>11</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -6604,7 +6604,7 @@
         <v>11</v>
       </c>
       <c r="G247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -6679,7 +6679,7 @@
         <v>11</v>
       </c>
       <c r="G250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -6754,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="G253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -6829,7 +6829,7 @@
         <v>11</v>
       </c>
       <c r="G256" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
@@ -6904,7 +6904,7 @@
         <v>11</v>
       </c>
       <c r="G259" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -6979,7 +6979,7 @@
         <v>11</v>
       </c>
       <c r="G262" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -7054,7 +7054,7 @@
         <v>11</v>
       </c>
       <c r="G265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -7129,7 +7129,7 @@
         <v>11</v>
       </c>
       <c r="G268" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -7204,7 +7204,7 @@
         <v>11</v>
       </c>
       <c r="G271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -7279,7 +7279,7 @@
         <v>11</v>
       </c>
       <c r="G274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -7354,7 +7354,7 @@
         <v>11</v>
       </c>
       <c r="G277" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -7429,7 +7429,7 @@
         <v>11</v>
       </c>
       <c r="G280" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
@@ -7504,7 +7504,7 @@
         <v>11</v>
       </c>
       <c r="G283" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -7579,7 +7579,7 @@
         <v>11</v>
       </c>
       <c r="G286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
@@ -7654,7 +7654,7 @@
         <v>11</v>
       </c>
       <c r="G289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -7729,7 +7729,7 @@
         <v>11</v>
       </c>
       <c r="G292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -7804,7 +7804,7 @@
         <v>11</v>
       </c>
       <c r="G295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
@@ -7879,7 +7879,7 @@
         <v>11</v>
       </c>
       <c r="G298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -7954,7 +7954,7 @@
         <v>11</v>
       </c>
       <c r="G301" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
@@ -8029,7 +8029,7 @@
         <v>11</v>
       </c>
       <c r="G304" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -8104,7 +8104,7 @@
         <v>11</v>
       </c>
       <c r="G307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -8179,7 +8179,7 @@
         <v>11</v>
       </c>
       <c r="G310" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -8254,7 +8254,7 @@
         <v>11</v>
       </c>
       <c r="G313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -8329,7 +8329,7 @@
         <v>11</v>
       </c>
       <c r="G316" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -8404,7 +8404,7 @@
         <v>11</v>
       </c>
       <c r="G319" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -8479,7 +8479,7 @@
         <v>11</v>
       </c>
       <c r="G322" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -8554,7 +8554,7 @@
         <v>11</v>
       </c>
       <c r="G325" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -8629,7 +8629,7 @@
         <v>11</v>
       </c>
       <c r="G328" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -8704,7 +8704,7 @@
         <v>11</v>
       </c>
       <c r="G331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
@@ -8779,7 +8779,7 @@
         <v>11</v>
       </c>
       <c r="G334" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -8854,7 +8854,7 @@
         <v>11</v>
       </c>
       <c r="G337" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -8929,7 +8929,7 @@
         <v>11</v>
       </c>
       <c r="G340" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
@@ -9004,7 +9004,7 @@
         <v>11</v>
       </c>
       <c r="G343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -9079,7 +9079,7 @@
         <v>11</v>
       </c>
       <c r="G346" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
@@ -9154,7 +9154,7 @@
         <v>11</v>
       </c>
       <c r="G349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -9229,7 +9229,7 @@
         <v>11</v>
       </c>
       <c r="G352" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -9304,7 +9304,7 @@
         <v>11</v>
       </c>
       <c r="G355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
@@ -9379,7 +9379,7 @@
         <v>11</v>
       </c>
       <c r="G358" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -9454,7 +9454,7 @@
         <v>11</v>
       </c>
       <c r="G361" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
@@ -9529,7 +9529,7 @@
         <v>11</v>
       </c>
       <c r="G364" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -9604,7 +9604,7 @@
         <v>11</v>
       </c>
       <c r="G367" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -9679,7 +9679,7 @@
         <v>11</v>
       </c>
       <c r="G370" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -9754,7 +9754,7 @@
         <v>11</v>
       </c>
       <c r="G373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -9829,7 +9829,7 @@
         <v>11</v>
       </c>
       <c r="G376" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
@@ -9904,7 +9904,7 @@
         <v>11</v>
       </c>
       <c r="G379" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -9979,7 +9979,7 @@
         <v>11</v>
       </c>
       <c r="G382" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -10054,7 +10054,7 @@
         <v>11</v>
       </c>
       <c r="G385" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -10129,7 +10129,7 @@
         <v>11</v>
       </c>
       <c r="G388" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -10204,7 +10204,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -10279,7 +10279,7 @@
         <v>11</v>
       </c>
       <c r="G394" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -10354,7 +10354,7 @@
         <v>11</v>
       </c>
       <c r="G397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -10429,7 +10429,7 @@
         <v>11</v>
       </c>
       <c r="G400" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -10504,7 +10504,7 @@
         <v>11</v>
       </c>
       <c r="G403" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -10579,7 +10579,7 @@
         <v>11</v>
       </c>
       <c r="G406" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
@@ -10654,7 +10654,7 @@
         <v>11</v>
       </c>
       <c r="G409" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -10729,7 +10729,7 @@
         <v>11</v>
       </c>
       <c r="G412" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -10804,7 +10804,7 @@
         <v>11</v>
       </c>
       <c r="G415" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -10879,7 +10879,7 @@
         <v>11</v>
       </c>
       <c r="G418" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -10954,7 +10954,7 @@
         <v>11</v>
       </c>
       <c r="G421" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -11029,7 +11029,7 @@
         <v>11</v>
       </c>
       <c r="G424" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -11104,7 +11104,7 @@
         <v>11</v>
       </c>
       <c r="G427" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -11179,7 +11179,7 @@
         <v>11</v>
       </c>
       <c r="G430" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -11254,7 +11254,7 @@
         <v>11</v>
       </c>
       <c r="G433" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -11329,7 +11329,7 @@
         <v>11</v>
       </c>
       <c r="G436" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -11404,7 +11404,7 @@
         <v>11</v>
       </c>
       <c r="G439" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -11479,7 +11479,7 @@
         <v>11</v>
       </c>
       <c r="G442" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -11554,7 +11554,7 @@
         <v>11</v>
       </c>
       <c r="G445" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -11629,7 +11629,7 @@
         <v>11</v>
       </c>
       <c r="G448" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -11704,7 +11704,7 @@
         <v>11</v>
       </c>
       <c r="G451" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
@@ -11779,7 +11779,7 @@
         <v>11</v>
       </c>
       <c r="G454" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -11854,7 +11854,7 @@
         <v>11</v>
       </c>
       <c r="G457" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -11929,7 +11929,7 @@
         <v>11</v>
       </c>
       <c r="G460" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.15">
@@ -12004,7 +12004,7 @@
         <v>11</v>
       </c>
       <c r="G463" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -12079,7 +12079,7 @@
         <v>11</v>
       </c>
       <c r="G466" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -12154,7 +12154,7 @@
         <v>11</v>
       </c>
       <c r="G469" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -12229,7 +12229,7 @@
         <v>11</v>
       </c>
       <c r="G472" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -12304,7 +12304,7 @@
         <v>11</v>
       </c>
       <c r="G475" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.15">
@@ -12379,7 +12379,7 @@
         <v>11</v>
       </c>
       <c r="G478" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -12454,7 +12454,7 @@
         <v>11</v>
       </c>
       <c r="G481" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.15">
@@ -12529,7 +12529,7 @@
         <v>11</v>
       </c>
       <c r="G484" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -12604,7 +12604,7 @@
         <v>11</v>
       </c>
       <c r="G487" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -12679,7 +12679,7 @@
         <v>11</v>
       </c>
       <c r="G490" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.15">
@@ -12754,7 +12754,7 @@
         <v>11</v>
       </c>
       <c r="G493" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -12829,7 +12829,7 @@
         <v>11</v>
       </c>
       <c r="G496" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.15">
@@ -12904,7 +12904,7 @@
         <v>11</v>
       </c>
       <c r="G499" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -12979,7 +12979,7 @@
         <v>11</v>
       </c>
       <c r="G502" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
@@ -13054,7 +13054,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -13129,7 +13129,7 @@
         <v>11</v>
       </c>
       <c r="G508" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.15">
@@ -13204,7 +13204,7 @@
         <v>11</v>
       </c>
       <c r="G511" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.15">
@@ -13279,7 +13279,7 @@
         <v>11</v>
       </c>
       <c r="G514" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -13354,7 +13354,7 @@
         <v>11</v>
       </c>
       <c r="G517" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -13429,7 +13429,7 @@
         <v>11</v>
       </c>
       <c r="G520" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.15">
@@ -13504,7 +13504,7 @@
         <v>11</v>
       </c>
       <c r="G523" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.15">
@@ -13579,7 +13579,7 @@
         <v>11</v>
       </c>
       <c r="G526" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.15">
@@ -13654,7 +13654,7 @@
         <v>11</v>
       </c>
       <c r="G529" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.15">
@@ -13729,7 +13729,7 @@
         <v>11</v>
       </c>
       <c r="G532" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
@@ -13804,7 +13804,7 @@
         <v>11</v>
       </c>
       <c r="G535" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.15">
@@ -13879,7 +13879,7 @@
         <v>11</v>
       </c>
       <c r="G538" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.15">
@@ -13954,7 +13954,7 @@
         <v>11</v>
       </c>
       <c r="G541" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
@@ -14029,7 +14029,7 @@
         <v>11</v>
       </c>
       <c r="G544" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.15">
@@ -14104,7 +14104,7 @@
         <v>11</v>
       </c>
       <c r="G547" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.15">
@@ -14179,7 +14179,7 @@
         <v>11</v>
       </c>
       <c r="G550" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
@@ -14254,7 +14254,7 @@
         <v>11</v>
       </c>
       <c r="G553" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.15">
@@ -14329,7 +14329,7 @@
         <v>11</v>
       </c>
       <c r="G556" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.15">
@@ -14404,7 +14404,7 @@
         <v>11</v>
       </c>
       <c r="G559" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.15">
@@ -14479,7 +14479,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.15">
@@ -14554,7 +14554,7 @@
         <v>11</v>
       </c>
       <c r="G565" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.15">
@@ -14629,7 +14629,7 @@
         <v>11</v>
       </c>
       <c r="G568" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.15">
@@ -14704,7 +14704,7 @@
         <v>11</v>
       </c>
       <c r="G571" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.15">
@@ -14779,7 +14779,7 @@
         <v>11</v>
       </c>
       <c r="G574" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.15">
@@ -14854,7 +14854,7 @@
         <v>11</v>
       </c>
       <c r="G577" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.15">
@@ -14929,7 +14929,7 @@
         <v>11</v>
       </c>
       <c r="G580" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.15">
@@ -15004,7 +15004,7 @@
         <v>11</v>
       </c>
       <c r="G583" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.15">
@@ -15079,7 +15079,7 @@
         <v>11</v>
       </c>
       <c r="G586" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.15">
@@ -15154,7 +15154,7 @@
         <v>11</v>
       </c>
       <c r="G589" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.15">
@@ -15229,7 +15229,7 @@
         <v>11</v>
       </c>
       <c r="G592" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.15">
@@ -15304,7 +15304,7 @@
         <v>11</v>
       </c>
       <c r="G595" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.15">
@@ -15379,7 +15379,7 @@
         <v>11</v>
       </c>
       <c r="G598" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.15">
@@ -15477,7 +15477,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -15552,7 +15552,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -15627,7 +15627,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -15702,7 +15702,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -15777,7 +15777,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -15852,7 +15852,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -15927,7 +15927,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -16002,7 +16002,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -16077,7 +16077,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -16152,7 +16152,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -16227,7 +16227,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -16302,7 +16302,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -16377,7 +16377,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -16452,7 +16452,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -16527,7 +16527,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -16602,7 +16602,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -16677,7 +16677,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -16752,7 +16752,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -16827,7 +16827,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -16902,7 +16902,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -16977,7 +16977,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -17052,7 +17052,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -17127,7 +17127,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -17202,7 +17202,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -17277,7 +17277,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -17352,7 +17352,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -17427,7 +17427,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -17502,7 +17502,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -17577,7 +17577,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -17652,7 +17652,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -17727,7 +17727,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -17802,7 +17802,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -17877,7 +17877,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -17952,7 +17952,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -18027,7 +18027,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -18102,7 +18102,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -18177,7 +18177,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -18252,7 +18252,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -18327,7 +18327,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -18402,7 +18402,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -18477,7 +18477,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -18552,7 +18552,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -18627,7 +18627,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -18702,7 +18702,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -18777,7 +18777,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -18852,7 +18852,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -18927,7 +18927,7 @@
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -19002,7 +19002,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -19077,7 +19077,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -19152,7 +19152,7 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -19227,7 +19227,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -19302,7 +19302,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -19377,7 +19377,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -19452,7 +19452,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -19527,7 +19527,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -19602,7 +19602,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -19677,7 +19677,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -19752,7 +19752,7 @@
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -19827,7 +19827,7 @@
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -19902,7 +19902,7 @@
         <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -19977,7 +19977,7 @@
         <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -20052,7 +20052,7 @@
         <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -20127,7 +20127,7 @@
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -20202,7 +20202,7 @@
         <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -20277,7 +20277,7 @@
         <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -20352,7 +20352,7 @@
         <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -20427,7 +20427,7 @@
         <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -20502,7 +20502,7 @@
         <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -20577,7 +20577,7 @@
         <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -20652,7 +20652,7 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -20727,7 +20727,7 @@
         <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -20802,7 +20802,7 @@
         <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -20877,7 +20877,7 @@
         <v>11</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -20952,7 +20952,7 @@
         <v>11</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -21027,7 +21027,7 @@
         <v>11</v>
       </c>
       <c r="G223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -21102,7 +21102,7 @@
         <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -21177,7 +21177,7 @@
         <v>11</v>
       </c>
       <c r="G229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -21252,7 +21252,7 @@
         <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -21327,7 +21327,7 @@
         <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
@@ -21402,7 +21402,7 @@
         <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -21477,7 +21477,7 @@
         <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
@@ -21552,7 +21552,7 @@
         <v>11</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -21627,7 +21627,7 @@
         <v>11</v>
       </c>
       <c r="G247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -21702,7 +21702,7 @@
         <v>11</v>
       </c>
       <c r="G250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -21777,7 +21777,7 @@
         <v>11</v>
       </c>
       <c r="G253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -21852,7 +21852,7 @@
         <v>11</v>
       </c>
       <c r="G256" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
@@ -21927,7 +21927,7 @@
         <v>11</v>
       </c>
       <c r="G259" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -22002,7 +22002,7 @@
         <v>11</v>
       </c>
       <c r="G262" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -22077,7 +22077,7 @@
         <v>11</v>
       </c>
       <c r="G265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -22152,7 +22152,7 @@
         <v>11</v>
       </c>
       <c r="G268" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -22227,7 +22227,7 @@
         <v>11</v>
       </c>
       <c r="G271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -22302,7 +22302,7 @@
         <v>11</v>
       </c>
       <c r="G274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -22377,7 +22377,7 @@
         <v>11</v>
       </c>
       <c r="G277" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -22452,7 +22452,7 @@
         <v>11</v>
       </c>
       <c r="G280" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
@@ -22527,7 +22527,7 @@
         <v>11</v>
       </c>
       <c r="G283" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -22602,7 +22602,7 @@
         <v>11</v>
       </c>
       <c r="G286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
@@ -22677,7 +22677,7 @@
         <v>11</v>
       </c>
       <c r="G289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -22752,7 +22752,7 @@
         <v>11</v>
       </c>
       <c r="G292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -22827,7 +22827,7 @@
         <v>11</v>
       </c>
       <c r="G295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
@@ -22902,7 +22902,7 @@
         <v>11</v>
       </c>
       <c r="G298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -22977,7 +22977,7 @@
         <v>11</v>
       </c>
       <c r="G301" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
@@ -23052,7 +23052,7 @@
         <v>11</v>
       </c>
       <c r="G304" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -23127,7 +23127,7 @@
         <v>11</v>
       </c>
       <c r="G307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -23202,7 +23202,7 @@
         <v>11</v>
       </c>
       <c r="G310" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -23277,7 +23277,7 @@
         <v>11</v>
       </c>
       <c r="G313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -23352,7 +23352,7 @@
         <v>11</v>
       </c>
       <c r="G316" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -23427,7 +23427,7 @@
         <v>11</v>
       </c>
       <c r="G319" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -23502,7 +23502,7 @@
         <v>11</v>
       </c>
       <c r="G322" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -23577,7 +23577,7 @@
         <v>11</v>
       </c>
       <c r="G325" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -23652,7 +23652,7 @@
         <v>11</v>
       </c>
       <c r="G328" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -23727,7 +23727,7 @@
         <v>11</v>
       </c>
       <c r="G331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
@@ -23802,7 +23802,7 @@
         <v>11</v>
       </c>
       <c r="G334" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -23877,7 +23877,7 @@
         <v>11</v>
       </c>
       <c r="G337" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -23952,7 +23952,7 @@
         <v>11</v>
       </c>
       <c r="G340" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
@@ -24027,7 +24027,7 @@
         <v>11</v>
       </c>
       <c r="G343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -24102,7 +24102,7 @@
         <v>11</v>
       </c>
       <c r="G346" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
@@ -24177,7 +24177,7 @@
         <v>11</v>
       </c>
       <c r="G349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -24252,7 +24252,7 @@
         <v>11</v>
       </c>
       <c r="G352" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -24327,7 +24327,7 @@
         <v>11</v>
       </c>
       <c r="G355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
@@ -24402,7 +24402,7 @@
         <v>11</v>
       </c>
       <c r="G358" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -24477,7 +24477,7 @@
         <v>11</v>
       </c>
       <c r="G361" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
@@ -24552,7 +24552,7 @@
         <v>11</v>
       </c>
       <c r="G364" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -24627,7 +24627,7 @@
         <v>11</v>
       </c>
       <c r="G367" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -24702,7 +24702,7 @@
         <v>11</v>
       </c>
       <c r="G370" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -24777,7 +24777,7 @@
         <v>11</v>
       </c>
       <c r="G373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -24852,7 +24852,7 @@
         <v>11</v>
       </c>
       <c r="G376" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
@@ -24927,7 +24927,7 @@
         <v>11</v>
       </c>
       <c r="G379" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -25002,7 +25002,7 @@
         <v>11</v>
       </c>
       <c r="G382" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -25077,7 +25077,7 @@
         <v>11</v>
       </c>
       <c r="G385" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -25152,7 +25152,7 @@
         <v>11</v>
       </c>
       <c r="G388" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -25227,7 +25227,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -25302,7 +25302,7 @@
         <v>11</v>
       </c>
       <c r="G394" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -25377,7 +25377,7 @@
         <v>11</v>
       </c>
       <c r="G397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -25452,7 +25452,7 @@
         <v>11</v>
       </c>
       <c r="G400" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -25527,7 +25527,7 @@
         <v>11</v>
       </c>
       <c r="G403" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -25602,7 +25602,7 @@
         <v>11</v>
       </c>
       <c r="G406" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
@@ -25677,7 +25677,7 @@
         <v>11</v>
       </c>
       <c r="G409" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -25752,7 +25752,7 @@
         <v>11</v>
       </c>
       <c r="G412" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -25827,7 +25827,7 @@
         <v>11</v>
       </c>
       <c r="G415" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -25902,7 +25902,7 @@
         <v>11</v>
       </c>
       <c r="G418" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -25977,7 +25977,7 @@
         <v>11</v>
       </c>
       <c r="G421" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -26052,7 +26052,7 @@
         <v>11</v>
       </c>
       <c r="G424" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -26127,7 +26127,7 @@
         <v>11</v>
       </c>
       <c r="G427" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -26202,7 +26202,7 @@
         <v>11</v>
       </c>
       <c r="G430" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -26277,7 +26277,7 @@
         <v>11</v>
       </c>
       <c r="G433" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -26352,7 +26352,7 @@
         <v>11</v>
       </c>
       <c r="G436" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -26427,7 +26427,7 @@
         <v>11</v>
       </c>
       <c r="G439" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -26502,7 +26502,7 @@
         <v>11</v>
       </c>
       <c r="G442" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -26577,7 +26577,7 @@
         <v>11</v>
       </c>
       <c r="G445" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -26652,7 +26652,7 @@
         <v>11</v>
       </c>
       <c r="G448" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -26727,7 +26727,7 @@
         <v>11</v>
       </c>
       <c r="G451" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
@@ -26802,7 +26802,7 @@
         <v>11</v>
       </c>
       <c r="G454" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -26877,7 +26877,7 @@
         <v>11</v>
       </c>
       <c r="G457" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -26952,7 +26952,7 @@
         <v>11</v>
       </c>
       <c r="G460" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.15">
@@ -27027,7 +27027,7 @@
         <v>11</v>
       </c>
       <c r="G463" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -27102,7 +27102,7 @@
         <v>11</v>
       </c>
       <c r="G466" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -27177,7 +27177,7 @@
         <v>11</v>
       </c>
       <c r="G469" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -27252,7 +27252,7 @@
         <v>11</v>
       </c>
       <c r="G472" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -27327,7 +27327,7 @@
         <v>11</v>
       </c>
       <c r="G475" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.15">
@@ -27402,7 +27402,7 @@
         <v>11</v>
       </c>
       <c r="G478" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -27477,7 +27477,7 @@
         <v>11</v>
       </c>
       <c r="G481" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.15">
@@ -27552,7 +27552,7 @@
         <v>11</v>
       </c>
       <c r="G484" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -27627,7 +27627,7 @@
         <v>11</v>
       </c>
       <c r="G487" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -27702,7 +27702,7 @@
         <v>11</v>
       </c>
       <c r="G490" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.15">
@@ -27777,7 +27777,7 @@
         <v>11</v>
       </c>
       <c r="G493" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -27852,7 +27852,7 @@
         <v>11</v>
       </c>
       <c r="G496" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.15">
@@ -27927,7 +27927,7 @@
         <v>11</v>
       </c>
       <c r="G499" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -28002,7 +28002,7 @@
         <v>11</v>
       </c>
       <c r="G502" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
@@ -28077,7 +28077,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -28152,7 +28152,7 @@
         <v>11</v>
       </c>
       <c r="G508" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.15">
@@ -28227,7 +28227,7 @@
         <v>11</v>
       </c>
       <c r="G511" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.15">
@@ -28302,7 +28302,7 @@
         <v>11</v>
       </c>
       <c r="G514" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -28377,7 +28377,7 @@
         <v>11</v>
       </c>
       <c r="G517" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -28452,7 +28452,7 @@
         <v>11</v>
       </c>
       <c r="G520" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.15">
@@ -28527,7 +28527,7 @@
         <v>11</v>
       </c>
       <c r="G523" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.15">
@@ -28602,7 +28602,7 @@
         <v>11</v>
       </c>
       <c r="G526" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.15">
@@ -28677,7 +28677,7 @@
         <v>11</v>
       </c>
       <c r="G529" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.15">
@@ -28752,7 +28752,7 @@
         <v>11</v>
       </c>
       <c r="G532" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
@@ -28827,7 +28827,7 @@
         <v>11</v>
       </c>
       <c r="G535" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.15">
@@ -28902,7 +28902,7 @@
         <v>11</v>
       </c>
       <c r="G538" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.15">
@@ -28977,7 +28977,7 @@
         <v>11</v>
       </c>
       <c r="G541" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
@@ -29052,7 +29052,7 @@
         <v>11</v>
       </c>
       <c r="G544" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.15">
@@ -29127,7 +29127,7 @@
         <v>11</v>
       </c>
       <c r="G547" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.15">
@@ -29202,7 +29202,7 @@
         <v>11</v>
       </c>
       <c r="G550" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
@@ -29277,7 +29277,7 @@
         <v>11</v>
       </c>
       <c r="G553" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.15">
@@ -29352,7 +29352,7 @@
         <v>11</v>
       </c>
       <c r="G556" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.15">
@@ -29427,7 +29427,7 @@
         <v>11</v>
       </c>
       <c r="G559" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.15">
@@ -29502,7 +29502,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.15">
@@ -29577,7 +29577,7 @@
         <v>11</v>
       </c>
       <c r="G565" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.15">
@@ -29652,7 +29652,7 @@
         <v>11</v>
       </c>
       <c r="G568" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.15">
@@ -29727,7 +29727,7 @@
         <v>11</v>
       </c>
       <c r="G571" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.15">
@@ -29802,7 +29802,7 @@
         <v>11</v>
       </c>
       <c r="G574" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.15">
@@ -29877,7 +29877,7 @@
         <v>11</v>
       </c>
       <c r="G577" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.15">
@@ -29952,7 +29952,7 @@
         <v>11</v>
       </c>
       <c r="G580" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.15">
@@ -30027,7 +30027,7 @@
         <v>11</v>
       </c>
       <c r="G583" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.15">
@@ -30102,7 +30102,7 @@
         <v>11</v>
       </c>
       <c r="G586" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.15">
@@ -30177,7 +30177,7 @@
         <v>11</v>
       </c>
       <c r="G589" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.15">
@@ -30252,7 +30252,7 @@
         <v>11</v>
       </c>
       <c r="G592" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.15">
@@ -30327,7 +30327,7 @@
         <v>11</v>
       </c>
       <c r="G595" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.15">
@@ -30402,7 +30402,7 @@
         <v>11</v>
       </c>
       <c r="G598" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.15">
@@ -30499,7 +30499,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -30574,7 +30574,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -30649,7 +30649,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -30724,7 +30724,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -30799,7 +30799,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -30874,7 +30874,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -30949,7 +30949,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -31024,7 +31024,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -31099,7 +31099,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -31174,7 +31174,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -31249,7 +31249,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -31324,7 +31324,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -31399,7 +31399,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -31474,7 +31474,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -31549,7 +31549,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -31624,7 +31624,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -31699,7 +31699,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -31774,7 +31774,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -31849,7 +31849,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -31924,7 +31924,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -31999,7 +31999,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -32074,7 +32074,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -32149,7 +32149,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -32224,7 +32224,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -32299,7 +32299,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -32374,7 +32374,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -32449,7 +32449,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -32524,7 +32524,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -32599,7 +32599,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -32674,7 +32674,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -32749,7 +32749,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -32824,7 +32824,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -32899,7 +32899,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -32974,7 +32974,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -33049,7 +33049,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -33124,7 +33124,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -33199,7 +33199,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -33274,7 +33274,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -33349,7 +33349,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -33424,7 +33424,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -33499,7 +33499,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -33574,7 +33574,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -33649,7 +33649,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -33724,7 +33724,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -33799,7 +33799,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -33874,7 +33874,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -33949,7 +33949,7 @@
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -34024,7 +34024,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -34099,7 +34099,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -34174,7 +34174,7 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -34249,7 +34249,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -34324,7 +34324,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -34399,7 +34399,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -34474,7 +34474,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -34549,7 +34549,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -34624,7 +34624,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -34699,7 +34699,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -34774,7 +34774,7 @@
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -34849,7 +34849,7 @@
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -34924,7 +34924,7 @@
         <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -34999,7 +34999,7 @@
         <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -35074,7 +35074,7 @@
         <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -35149,7 +35149,7 @@
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -35224,7 +35224,7 @@
         <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -35299,7 +35299,7 @@
         <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -35374,7 +35374,7 @@
         <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -35449,7 +35449,7 @@
         <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -35524,7 +35524,7 @@
         <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -35599,7 +35599,7 @@
         <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -35674,7 +35674,7 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -35749,7 +35749,7 @@
         <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -35824,7 +35824,7 @@
         <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -35899,7 +35899,7 @@
         <v>11</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -35974,7 +35974,7 @@
         <v>11</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -36049,7 +36049,7 @@
         <v>11</v>
       </c>
       <c r="G223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -36124,7 +36124,7 @@
         <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -36199,7 +36199,7 @@
         <v>11</v>
       </c>
       <c r="G229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -36274,7 +36274,7 @@
         <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -36349,7 +36349,7 @@
         <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
@@ -36424,7 +36424,7 @@
         <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -36499,7 +36499,7 @@
         <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
@@ -36574,7 +36574,7 @@
         <v>11</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -36649,7 +36649,7 @@
         <v>11</v>
       </c>
       <c r="G247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -36724,7 +36724,7 @@
         <v>11</v>
       </c>
       <c r="G250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -36799,7 +36799,7 @@
         <v>11</v>
       </c>
       <c r="G253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -36874,7 +36874,7 @@
         <v>11</v>
       </c>
       <c r="G256" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
@@ -36949,7 +36949,7 @@
         <v>11</v>
       </c>
       <c r="G259" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -37024,7 +37024,7 @@
         <v>11</v>
       </c>
       <c r="G262" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -37099,7 +37099,7 @@
         <v>11</v>
       </c>
       <c r="G265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -37174,7 +37174,7 @@
         <v>11</v>
       </c>
       <c r="G268" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -37249,7 +37249,7 @@
         <v>11</v>
       </c>
       <c r="G271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -37324,7 +37324,7 @@
         <v>11</v>
       </c>
       <c r="G274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -37399,7 +37399,7 @@
         <v>11</v>
       </c>
       <c r="G277" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -37474,7 +37474,7 @@
         <v>11</v>
       </c>
       <c r="G280" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
@@ -37549,7 +37549,7 @@
         <v>11</v>
       </c>
       <c r="G283" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -37624,7 +37624,7 @@
         <v>11</v>
       </c>
       <c r="G286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
@@ -37699,7 +37699,7 @@
         <v>11</v>
       </c>
       <c r="G289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -37774,7 +37774,7 @@
         <v>11</v>
       </c>
       <c r="G292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -37849,7 +37849,7 @@
         <v>11</v>
       </c>
       <c r="G295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
@@ -37924,7 +37924,7 @@
         <v>11</v>
       </c>
       <c r="G298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -37999,7 +37999,7 @@
         <v>11</v>
       </c>
       <c r="G301" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
@@ -38074,7 +38074,7 @@
         <v>11</v>
       </c>
       <c r="G304" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -38149,7 +38149,7 @@
         <v>11</v>
       </c>
       <c r="G307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -38224,7 +38224,7 @@
         <v>11</v>
       </c>
       <c r="G310" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -38299,7 +38299,7 @@
         <v>11</v>
       </c>
       <c r="G313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -38374,7 +38374,7 @@
         <v>11</v>
       </c>
       <c r="G316" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -38449,7 +38449,7 @@
         <v>11</v>
       </c>
       <c r="G319" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -38524,7 +38524,7 @@
         <v>11</v>
       </c>
       <c r="G322" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -38599,7 +38599,7 @@
         <v>11</v>
       </c>
       <c r="G325" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -38674,7 +38674,7 @@
         <v>11</v>
       </c>
       <c r="G328" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -38749,7 +38749,7 @@
         <v>11</v>
       </c>
       <c r="G331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
@@ -38824,7 +38824,7 @@
         <v>11</v>
       </c>
       <c r="G334" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -38899,7 +38899,7 @@
         <v>11</v>
       </c>
       <c r="G337" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
@@ -38974,7 +38974,7 @@
         <v>11</v>
       </c>
       <c r="G340" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
@@ -39049,7 +39049,7 @@
         <v>11</v>
       </c>
       <c r="G343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
@@ -39124,7 +39124,7 @@
         <v>11</v>
       </c>
       <c r="G346" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
@@ -39199,7 +39199,7 @@
         <v>11</v>
       </c>
       <c r="G349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -39274,7 +39274,7 @@
         <v>11</v>
       </c>
       <c r="G352" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -39349,7 +39349,7 @@
         <v>11</v>
       </c>
       <c r="G355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
@@ -39424,7 +39424,7 @@
         <v>11</v>
       </c>
       <c r="G358" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -39499,7 +39499,7 @@
         <v>11</v>
       </c>
       <c r="G361" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
@@ -39574,7 +39574,7 @@
         <v>11</v>
       </c>
       <c r="G364" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -39649,7 +39649,7 @@
         <v>11</v>
       </c>
       <c r="G367" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -39724,7 +39724,7 @@
         <v>11</v>
       </c>
       <c r="G370" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -39799,7 +39799,7 @@
         <v>11</v>
       </c>
       <c r="G373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -39874,7 +39874,7 @@
         <v>11</v>
       </c>
       <c r="G376" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
@@ -39949,7 +39949,7 @@
         <v>11</v>
       </c>
       <c r="G379" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -40024,7 +40024,7 @@
         <v>11</v>
       </c>
       <c r="G382" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -40099,7 +40099,7 @@
         <v>11</v>
       </c>
       <c r="G385" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -40174,7 +40174,7 @@
         <v>11</v>
       </c>
       <c r="G388" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -40249,7 +40249,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -40324,7 +40324,7 @@
         <v>11</v>
       </c>
       <c r="G394" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -40399,7 +40399,7 @@
         <v>11</v>
       </c>
       <c r="G397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -40474,7 +40474,7 @@
         <v>11</v>
       </c>
       <c r="G400" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -40549,7 +40549,7 @@
         <v>11</v>
       </c>
       <c r="G403" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -40624,7 +40624,7 @@
         <v>11</v>
       </c>
       <c r="G406" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
@@ -40699,7 +40699,7 @@
         <v>11</v>
       </c>
       <c r="G409" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -40774,7 +40774,7 @@
         <v>11</v>
       </c>
       <c r="G412" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -40849,7 +40849,7 @@
         <v>11</v>
       </c>
       <c r="G415" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -40924,7 +40924,7 @@
         <v>11</v>
       </c>
       <c r="G418" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -40999,7 +40999,7 @@
         <v>11</v>
       </c>
       <c r="G421" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -41074,7 +41074,7 @@
         <v>11</v>
       </c>
       <c r="G424" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -41149,7 +41149,7 @@
         <v>11</v>
       </c>
       <c r="G427" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -41224,7 +41224,7 @@
         <v>11</v>
       </c>
       <c r="G430" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -41299,7 +41299,7 @@
         <v>11</v>
       </c>
       <c r="G433" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -41374,7 +41374,7 @@
         <v>11</v>
       </c>
       <c r="G436" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -41449,7 +41449,7 @@
         <v>11</v>
       </c>
       <c r="G439" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -41524,7 +41524,7 @@
         <v>11</v>
       </c>
       <c r="G442" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -41599,7 +41599,7 @@
         <v>11</v>
       </c>
       <c r="G445" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -41674,7 +41674,7 @@
         <v>11</v>
       </c>
       <c r="G448" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -41749,7 +41749,7 @@
         <v>11</v>
       </c>
       <c r="G451" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
@@ -41824,7 +41824,7 @@
         <v>11</v>
       </c>
       <c r="G454" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -41899,7 +41899,7 @@
         <v>11</v>
       </c>
       <c r="G457" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -41974,7 +41974,7 @@
         <v>11</v>
       </c>
       <c r="G460" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.15">
@@ -42049,7 +42049,7 @@
         <v>11</v>
       </c>
       <c r="G463" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -42124,7 +42124,7 @@
         <v>11</v>
       </c>
       <c r="G466" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -42199,7 +42199,7 @@
         <v>11</v>
       </c>
       <c r="G469" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -42274,7 +42274,7 @@
         <v>11</v>
       </c>
       <c r="G472" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -42349,7 +42349,7 @@
         <v>11</v>
       </c>
       <c r="G475" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.15">
@@ -42424,7 +42424,7 @@
         <v>11</v>
       </c>
       <c r="G478" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -42499,7 +42499,7 @@
         <v>11</v>
       </c>
       <c r="G481" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.15">
@@ -42574,7 +42574,7 @@
         <v>11</v>
       </c>
       <c r="G484" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -42649,7 +42649,7 @@
         <v>11</v>
       </c>
       <c r="G487" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -42724,7 +42724,7 @@
         <v>11</v>
       </c>
       <c r="G490" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.15">
@@ -42799,7 +42799,7 @@
         <v>11</v>
       </c>
       <c r="G493" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -42874,7 +42874,7 @@
         <v>11</v>
       </c>
       <c r="G496" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.15">
@@ -42949,7 +42949,7 @@
         <v>11</v>
       </c>
       <c r="G499" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -43024,7 +43024,7 @@
         <v>11</v>
       </c>
       <c r="G502" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
@@ -43099,7 +43099,7 @@
         <v>11</v>
       </c>
       <c r="G505" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -43174,7 +43174,7 @@
         <v>11</v>
       </c>
       <c r="G508" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.15">
@@ -43249,7 +43249,7 @@
         <v>11</v>
       </c>
       <c r="G511" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.15">
@@ -43324,7 +43324,7 @@
         <v>11</v>
       </c>
       <c r="G514" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -43399,7 +43399,7 @@
         <v>11</v>
       </c>
       <c r="G517" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -43474,7 +43474,7 @@
         <v>11</v>
       </c>
       <c r="G520" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.15">
@@ -43549,7 +43549,7 @@
         <v>11</v>
       </c>
       <c r="G523" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.15">
@@ -43624,7 +43624,7 @@
         <v>11</v>
       </c>
       <c r="G526" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.15">
@@ -43699,7 +43699,7 @@
         <v>11</v>
       </c>
       <c r="G529" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.15">
@@ -43774,7 +43774,7 @@
         <v>11</v>
       </c>
       <c r="G532" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
@@ -43849,7 +43849,7 @@
         <v>11</v>
       </c>
       <c r="G535" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.15">
@@ -43924,7 +43924,7 @@
         <v>11</v>
       </c>
       <c r="G538" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.15">
@@ -43999,7 +43999,7 @@
         <v>11</v>
       </c>
       <c r="G541" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
@@ -44074,7 +44074,7 @@
         <v>11</v>
       </c>
       <c r="G544" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.15">
@@ -44149,7 +44149,7 @@
         <v>11</v>
       </c>
       <c r="G547" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.15">
@@ -44224,7 +44224,7 @@
         <v>11</v>
       </c>
       <c r="G550" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
@@ -44299,7 +44299,7 @@
         <v>11</v>
       </c>
       <c r="G553" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.15">
@@ -44374,7 +44374,7 @@
         <v>11</v>
       </c>
       <c r="G556" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.15">
@@ -44449,7 +44449,7 @@
         <v>11</v>
       </c>
       <c r="G559" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.15">
@@ -44524,7 +44524,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.15">
@@ -44599,7 +44599,7 @@
         <v>11</v>
       </c>
       <c r="G565" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.15">
@@ -44674,7 +44674,7 @@
         <v>11</v>
       </c>
       <c r="G568" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.15">
@@ -44749,7 +44749,7 @@
         <v>11</v>
       </c>
       <c r="G571" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.15">
@@ -44824,7 +44824,7 @@
         <v>11</v>
       </c>
       <c r="G574" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.15">
@@ -44899,7 +44899,7 @@
         <v>11</v>
       </c>
       <c r="G577" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.15">
@@ -44974,7 +44974,7 @@
         <v>11</v>
       </c>
       <c r="G580" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.15">
@@ -45049,7 +45049,7 @@
         <v>11</v>
       </c>
       <c r="G583" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.15">
@@ -45124,7 +45124,7 @@
         <v>11</v>
       </c>
       <c r="G586" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.15">
@@ -45199,7 +45199,7 @@
         <v>11</v>
       </c>
       <c r="G589" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.15">
@@ -45274,7 +45274,7 @@
         <v>11</v>
       </c>
       <c r="G592" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.15">
@@ -45349,7 +45349,7 @@
         <v>11</v>
       </c>
       <c r="G595" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.15">
@@ -45424,7 +45424,7 @@
         <v>11</v>
       </c>
       <c r="G598" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.15">
